--- a/reference/RBNZ_Series.xlsx
+++ b/reference/RBNZ_Series.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csvnewzealand-my.sharepoint.com/personal/mike_csv_co_nz/Documents/Altitude/reference/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1466" documentId="8_{EF502B89-211D-421F-9580-6517AA3B8675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77798041-ACA7-4FAF-B7BD-78DEB622EF47}"/>
+  <xr:revisionPtr revIDLastSave="1487" documentId="8_{EF502B89-211D-421F-9580-6517AA3B8675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1ECDE14A-DAC1-4CD5-A2EA-28A7944BD39D}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="26116" windowHeight="15675" xr2:uid="{3553F27D-D304-4856-A86D-E4F41AA213AD}"/>
+    <workbookView xWindow="8415" yWindow="-21720" windowWidth="38640" windowHeight="21120" xr2:uid="{3553F27D-D304-4856-A86D-E4F41AA213AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Series Definitions" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Series Definitions (2)" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Series Definitions'!$A$1:$N$410</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Series Definitions'!$A$1:$N$411</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Series Definitions (2)'!$A$1:$M$23</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5489" uniqueCount="992">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5466" uniqueCount="991">
   <si>
     <t>Group</t>
   </si>
@@ -2925,9 +2925,6 @@
   </si>
   <si>
     <t>&lt;=80% LVR</t>
-  </si>
-  <si>
-    <t>NZDm Opening position</t>
   </si>
   <si>
     <t>Prefix</t>
@@ -3526,11 +3523,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7951F0BF-F4F4-4018-91DD-7578A3106959}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:Q411"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A389" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J411" sqref="J411"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J90" sqref="J90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3599,22 +3597,16 @@
         <v>951</v>
       </c>
       <c r="P1" s="7" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A2" s="8" t="s">
-        <v>114</v>
-      </c>
+        <v>961</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="8"/>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
-      <c r="E2" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>114</v>
-      </c>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
@@ -3626,7 +3618,7 @@
       <c r="O2" s="9"/>
       <c r="P2" s="9"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
         <v>55</v>
       </c>
@@ -3655,7 +3647,7 @@
         <v>55</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="M3" s="3" t="s">
         <v>52</v>
@@ -3667,7 +3659,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
         <v>59</v>
       </c>
@@ -3711,7 +3703,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
         <v>59</v>
       </c>
@@ -3752,10 +3744,10 @@
         <v>954</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
         <v>59</v>
       </c>
@@ -3799,7 +3791,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
         <v>59</v>
       </c>
@@ -3828,7 +3820,7 @@
         <v>737</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="M7" s="3" t="s">
         <v>52</v>
@@ -3840,10 +3832,10 @@
         <v>954</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A8" s="5" t="s">
         <v>59</v>
       </c>
@@ -3884,10 +3876,10 @@
         <v>954</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
         <v>59</v>
       </c>
@@ -3931,7 +3923,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A10" s="5" t="s">
         <v>59</v>
       </c>
@@ -3960,7 +3952,7 @@
         <v>740</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>52</v>
@@ -3972,10 +3964,10 @@
         <v>954</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
         <v>59</v>
       </c>
@@ -4016,10 +4008,10 @@
         <v>954</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
         <v>59</v>
       </c>
@@ -4060,10 +4052,10 @@
         <v>954</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A13" s="5" t="s">
         <v>59</v>
       </c>
@@ -4107,7 +4099,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A14" s="5" t="s">
         <v>59</v>
       </c>
@@ -4136,7 +4128,7 @@
         <v>744</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>52</v>
@@ -4148,10 +4140,10 @@
         <v>954</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A15" s="5" t="s">
         <v>59</v>
       </c>
@@ -4180,7 +4172,7 @@
         <v>745</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>52</v>
@@ -4192,10 +4184,10 @@
         <v>954</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A16" s="5" t="s">
         <v>59</v>
       </c>
@@ -4239,7 +4231,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A17" s="5" t="s">
         <v>59</v>
       </c>
@@ -4268,7 +4260,7 @@
         <v>747</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="M17" s="3" t="s">
         <v>52</v>
@@ -4283,7 +4275,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A18" s="5" t="s">
         <v>59</v>
       </c>
@@ -4312,7 +4304,7 @@
         <v>748</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="M18" s="3" t="s">
         <v>52</v>
@@ -4324,10 +4316,10 @@
         <v>954</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.45">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A19" s="5" t="s">
         <v>59</v>
       </c>
@@ -4356,7 +4348,7 @@
         <v>749</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="M19" s="3" t="s">
         <v>52</v>
@@ -4368,10 +4360,10 @@
         <v>954</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.45">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A20" s="5" t="s">
         <v>59</v>
       </c>
@@ -4400,7 +4392,7 @@
         <v>750</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>52</v>
@@ -4412,10 +4404,10 @@
         <v>954</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.45">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A21" s="5" t="s">
         <v>111</v>
       </c>
@@ -4444,7 +4436,7 @@
         <v>730</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="M21" s="3" t="s">
         <v>52</v>
@@ -4456,19 +4448,15 @@
         <v>954</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A22" s="8" t="s">
         <v>213</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
-      <c r="E22" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>213</v>
-      </c>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
@@ -4486,7 +4474,7 @@
       <c r="O22" s="9"/>
       <c r="P22" s="9"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A23" s="2" t="s">
         <v>118</v>
       </c>
@@ -4518,7 +4506,7 @@
         <v>16</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="M23" s="3" t="s">
         <v>755</v>
@@ -4531,7 +4519,7 @@
       </c>
       <c r="P23" s="3"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A24" s="2" t="s">
         <v>118</v>
       </c>
@@ -4560,7 +4548,7 @@
       </c>
       <c r="P24" s="3"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A25" s="2" t="s">
         <v>118</v>
       </c>
@@ -4589,7 +4577,7 @@
       </c>
       <c r="P25" s="3"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A26" s="2" t="s">
         <v>118</v>
       </c>
@@ -4618,7 +4606,7 @@
       </c>
       <c r="P26" s="3"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A27" s="2" t="s">
         <v>128</v>
       </c>
@@ -4647,7 +4635,7 @@
       </c>
       <c r="P27" s="3"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A28" s="2" t="s">
         <v>128</v>
       </c>
@@ -4676,7 +4664,7 @@
       </c>
       <c r="P28" s="3"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A29" s="2" t="s">
         <v>128</v>
       </c>
@@ -4705,7 +4693,7 @@
       </c>
       <c r="P29" s="3"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A30" s="2" t="s">
         <v>135</v>
       </c>
@@ -4737,7 +4725,7 @@
         <v>16</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="M30" s="3" t="s">
         <v>757</v>
@@ -4750,7 +4738,7 @@
       </c>
       <c r="P30" s="3"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A31" s="2" t="s">
         <v>135</v>
       </c>
@@ -4782,7 +4770,7 @@
         <v>16</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="M31" s="3" t="s">
         <v>762</v>
@@ -4795,7 +4783,7 @@
       </c>
       <c r="P31" s="3"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A32" s="2" t="s">
         <v>135</v>
       </c>
@@ -4827,7 +4815,7 @@
         <v>16</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="M32" s="3" t="s">
         <v>761</v>
@@ -4840,7 +4828,7 @@
       </c>
       <c r="P32" s="3"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A33" s="2" t="s">
         <v>135</v>
       </c>
@@ -4872,7 +4860,7 @@
         <v>16</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="M33" s="3" t="s">
         <v>752</v>
@@ -4885,7 +4873,7 @@
       </c>
       <c r="P33" s="3"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A34" s="2" t="s">
         <v>135</v>
       </c>
@@ -4909,7 +4897,7 @@
       <c r="O34" s="3"/>
       <c r="P34" s="3"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A35" s="2" t="s">
         <v>135</v>
       </c>
@@ -4933,7 +4921,7 @@
       <c r="O35" s="3"/>
       <c r="P35" s="3"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A36" s="2" t="s">
         <v>135</v>
       </c>
@@ -4957,7 +4945,7 @@
       <c r="O36" s="3"/>
       <c r="P36" s="3"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A37" s="2" t="s">
         <v>135</v>
       </c>
@@ -4981,7 +4969,7 @@
       <c r="O37" s="3"/>
       <c r="P37" s="3"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A38" s="2" t="s">
         <v>135</v>
       </c>
@@ -5005,7 +4993,7 @@
       <c r="O38" s="3"/>
       <c r="P38" s="3"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A39" s="2" t="s">
         <v>135</v>
       </c>
@@ -5029,7 +5017,7 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A40" s="2" t="s">
         <v>135</v>
       </c>
@@ -5053,7 +5041,7 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A41" s="2" t="s">
         <v>135</v>
       </c>
@@ -5077,7 +5065,7 @@
       <c r="O41" s="3"/>
       <c r="P41" s="3"/>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A42" s="2" t="s">
         <v>135</v>
       </c>
@@ -5101,7 +5089,7 @@
       <c r="O42" s="3"/>
       <c r="P42" s="3"/>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A43" s="2" t="s">
         <v>135</v>
       </c>
@@ -5125,7 +5113,7 @@
       <c r="O43" s="3"/>
       <c r="P43" s="3"/>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A44" s="2" t="s">
         <v>135</v>
       </c>
@@ -5149,7 +5137,7 @@
       <c r="O44" s="3"/>
       <c r="P44" s="3"/>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A45" s="2" t="s">
         <v>135</v>
       </c>
@@ -5173,7 +5161,7 @@
       <c r="O45" s="3"/>
       <c r="P45" s="3"/>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A46" s="2" t="s">
         <v>135</v>
       </c>
@@ -5197,7 +5185,7 @@
       <c r="O46" s="3"/>
       <c r="P46" s="3"/>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A47" s="2" t="s">
         <v>135</v>
       </c>
@@ -5221,7 +5209,7 @@
       <c r="O47" s="3"/>
       <c r="P47" s="3"/>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A48" s="2" t="s">
         <v>135</v>
       </c>
@@ -5245,7 +5233,7 @@
       <c r="O48" s="3"/>
       <c r="P48" s="3"/>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A49" s="2" t="s">
         <v>135</v>
       </c>
@@ -5269,7 +5257,7 @@
       <c r="O49" s="3"/>
       <c r="P49" s="3"/>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A50" s="2" t="s">
         <v>135</v>
       </c>
@@ -5293,7 +5281,7 @@
       <c r="O50" s="3"/>
       <c r="P50" s="3"/>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A51" s="2" t="s">
         <v>135</v>
       </c>
@@ -5317,7 +5305,7 @@
       <c r="O51" s="3"/>
       <c r="P51" s="3"/>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A52" s="2" t="s">
         <v>135</v>
       </c>
@@ -5341,7 +5329,7 @@
       <c r="O52" s="3"/>
       <c r="P52" s="3"/>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A53" s="2" t="s">
         <v>135</v>
       </c>
@@ -5365,7 +5353,7 @@
       <c r="O53" s="3"/>
       <c r="P53" s="3"/>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A54" s="2" t="s">
         <v>135</v>
       </c>
@@ -5389,7 +5377,7 @@
       <c r="O54" s="3"/>
       <c r="P54" s="3"/>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A55" s="2" t="s">
         <v>186</v>
       </c>
@@ -5413,7 +5401,7 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A56" s="2" t="s">
         <v>186</v>
       </c>
@@ -5437,7 +5425,7 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A57" s="2" t="s">
         <v>186</v>
       </c>
@@ -5461,7 +5449,7 @@
       <c r="O57" s="3"/>
       <c r="P57" s="3"/>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A58" s="2" t="s">
         <v>186</v>
       </c>
@@ -5485,7 +5473,7 @@
       <c r="O58" s="3"/>
       <c r="P58" s="3"/>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A59" s="2" t="s">
         <v>186</v>
       </c>
@@ -5509,7 +5497,7 @@
       <c r="O59" s="3"/>
       <c r="P59" s="3"/>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A60" s="2" t="s">
         <v>197</v>
       </c>
@@ -5541,7 +5529,7 @@
         <v>16</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="M60" s="3" t="s">
         <v>757</v>
@@ -5554,7 +5542,7 @@
       </c>
       <c r="P60" s="3"/>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A61" s="2" t="s">
         <v>197</v>
       </c>
@@ -5586,7 +5574,7 @@
         <v>16</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="M61" s="3" t="s">
         <v>762</v>
@@ -5599,7 +5587,7 @@
       </c>
       <c r="P61" s="3"/>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A62" s="2" t="s">
         <v>197</v>
       </c>
@@ -5623,7 +5611,7 @@
       <c r="O62" s="3"/>
       <c r="P62" s="3"/>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A63" s="2" t="s">
         <v>197</v>
       </c>
@@ -5647,7 +5635,7 @@
       <c r="O63" s="3"/>
       <c r="P63" s="3"/>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A64" s="2" t="s">
         <v>197</v>
       </c>
@@ -5679,7 +5667,7 @@
         <v>16</v>
       </c>
       <c r="L64" s="2" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="M64" s="3" t="s">
         <v>761</v>
@@ -5692,7 +5680,7 @@
       </c>
       <c r="P64" s="3"/>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A65" s="2" t="s">
         <v>197</v>
       </c>
@@ -5716,7 +5704,7 @@
       <c r="O65" s="3"/>
       <c r="P65" s="3"/>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A66" s="2" t="s">
         <v>197</v>
       </c>
@@ -5748,7 +5736,7 @@
         <v>16</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="M66" s="3" t="s">
         <v>752</v>
@@ -5761,7 +5749,7 @@
       </c>
       <c r="P66" s="3"/>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A67" s="2" t="s">
         <v>197</v>
       </c>
@@ -5785,7 +5773,7 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A68" s="2" t="s">
         <v>197</v>
       </c>
@@ -5817,7 +5805,7 @@
         <v>212</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="M68" s="3" t="s">
         <v>760</v>
@@ -5830,19 +5818,15 @@
       </c>
       <c r="P68" s="3"/>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A69" s="8" t="s">
         <v>278</v>
       </c>
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
       <c r="D69" s="8"/>
-      <c r="E69" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="F69" s="8" t="s">
-        <v>278</v>
-      </c>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c r="H69" s="8"/>
       <c r="I69" s="8"/>
@@ -5891,13 +5875,13 @@
         <v>769</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>961</v>
+        <v>217</v>
       </c>
       <c r="K70" s="2" t="s">
         <v>942</v>
       </c>
       <c r="L70" s="2" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="M70" s="3" t="s">
         <v>755</v>
@@ -5946,7 +5930,7 @@
         <v>942</v>
       </c>
       <c r="L71" s="2" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="M71" s="3" t="s">
         <v>53</v>
@@ -5995,7 +5979,7 @@
         <v>942</v>
       </c>
       <c r="L72" s="2" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="M72" s="3" t="s">
         <v>52</v>
@@ -6044,7 +6028,7 @@
         <v>942</v>
       </c>
       <c r="L73" s="2" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="M73" s="3" t="s">
         <v>756</v>
@@ -6093,7 +6077,7 @@
         <v>942</v>
       </c>
       <c r="L74" s="2" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="M74" s="3" t="s">
         <v>760</v>
@@ -6142,7 +6126,7 @@
         <v>942</v>
       </c>
       <c r="L75" s="2" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="M75" s="3" t="s">
         <v>945</v>
@@ -6191,7 +6175,7 @@
         <v>942</v>
       </c>
       <c r="L76" s="2" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="M76" s="3" t="s">
         <v>754</v>
@@ -6240,7 +6224,7 @@
         <v>942</v>
       </c>
       <c r="L77" s="2" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="M77" s="3" t="s">
         <v>752</v>
@@ -6289,7 +6273,7 @@
         <v>942</v>
       </c>
       <c r="L78" s="2" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="M78" s="3" t="s">
         <v>755</v>
@@ -6362,13 +6346,13 @@
         <v>769</v>
       </c>
       <c r="J80" s="2" t="s">
-        <v>961</v>
+        <v>217</v>
       </c>
       <c r="K80" s="2" t="s">
         <v>943</v>
       </c>
       <c r="L80" s="2" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="M80" s="3" t="str">
         <f>M70</f>
@@ -6418,7 +6402,7 @@
         <v>943</v>
       </c>
       <c r="L81" s="2" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="M81" s="3" t="str">
         <f t="shared" ref="M81:N81" si="1">M71</f>
@@ -6468,7 +6452,7 @@
         <v>943</v>
       </c>
       <c r="L82" s="2" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="M82" s="3" t="str">
         <f t="shared" ref="M82:N82" si="2">M72</f>
@@ -6518,7 +6502,7 @@
         <v>943</v>
       </c>
       <c r="L83" s="2" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="M83" s="3" t="str">
         <f t="shared" ref="M83:N83" si="3">M73</f>
@@ -6568,7 +6552,7 @@
         <v>943</v>
       </c>
       <c r="L84" s="2" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="M84" s="3" t="str">
         <f t="shared" ref="M84:N84" si="4">M74</f>
@@ -6618,7 +6602,7 @@
         <v>943</v>
       </c>
       <c r="L85" s="2" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="M85" s="3" t="str">
         <f t="shared" ref="M85:N85" si="5">M75</f>
@@ -6668,7 +6652,7 @@
         <v>943</v>
       </c>
       <c r="L86" s="2" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="M86" s="3" t="str">
         <f t="shared" ref="M86:N86" si="6">M76</f>
@@ -6718,7 +6702,7 @@
         <v>943</v>
       </c>
       <c r="L87" s="2" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="M87" s="3" t="str">
         <f t="shared" ref="M87:N87" si="7">M77</f>
@@ -6768,7 +6752,7 @@
         <v>943</v>
       </c>
       <c r="L88" s="2" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="M88" s="3" t="str">
         <f t="shared" ref="M88:N88" si="8">M78</f>
@@ -6842,13 +6826,13 @@
         <v>769</v>
       </c>
       <c r="J90" s="2" t="s">
-        <v>961</v>
+        <v>217</v>
       </c>
       <c r="K90" s="2" t="s">
         <v>943</v>
       </c>
       <c r="L90" s="2" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="M90" s="3" t="str">
         <f>M80</f>
@@ -6898,7 +6882,7 @@
         <v>943</v>
       </c>
       <c r="L91" s="2" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="M91" s="3" t="str">
         <f t="shared" ref="M91:N91" si="9">M81</f>
@@ -6948,7 +6932,7 @@
         <v>943</v>
       </c>
       <c r="L92" s="2" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="M92" s="3" t="str">
         <f t="shared" ref="M92:N92" si="10">M82</f>
@@ -6998,7 +6982,7 @@
         <v>943</v>
       </c>
       <c r="L93" s="2" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="M93" s="3" t="str">
         <f t="shared" ref="M93:N93" si="11">M83</f>
@@ -7048,7 +7032,7 @@
         <v>943</v>
       </c>
       <c r="L94" s="2" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="M94" s="3" t="str">
         <f t="shared" ref="M94:N94" si="12">M84</f>
@@ -7098,7 +7082,7 @@
         <v>943</v>
       </c>
       <c r="L95" s="2" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="M95" s="3" t="str">
         <f t="shared" ref="M95:N95" si="13">M85</f>
@@ -7148,7 +7132,7 @@
         <v>943</v>
       </c>
       <c r="L96" s="2" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="M96" s="3" t="str">
         <f t="shared" ref="M96:N96" si="14">M86</f>
@@ -7198,7 +7182,7 @@
         <v>943</v>
       </c>
       <c r="L97" s="2" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="M97" s="3" t="str">
         <f t="shared" ref="M97:N97" si="15">M87</f>
@@ -7248,7 +7232,7 @@
         <v>943</v>
       </c>
       <c r="L98" s="2" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="M98" s="3" t="str">
         <f t="shared" ref="M98:N98" si="16">M88</f>
@@ -7293,19 +7277,15 @@
       <c r="O99" s="3"/>
       <c r="P99" s="3"/>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A100" s="8" t="s">
         <v>342</v>
       </c>
       <c r="B100" s="8"/>
       <c r="C100" s="8"/>
       <c r="D100" s="8"/>
-      <c r="E100" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="F100" s="8" t="s">
-        <v>342</v>
-      </c>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c r="H100" s="8"/>
       <c r="I100" s="8"/>
@@ -7321,7 +7301,7 @@
       </c>
       <c r="P100" s="9"/>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A101" s="5" t="s">
         <v>279</v>
       </c>
@@ -7354,17 +7334,17 @@
         <v>733</v>
       </c>
       <c r="M101" s="3" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="N101" s="3" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="O101" s="3" t="s">
         <v>954</v>
       </c>
       <c r="P101" s="3"/>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A102" s="5" t="s">
         <v>279</v>
       </c>
@@ -7397,17 +7377,17 @@
         <v>733</v>
       </c>
       <c r="M102" s="3" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="N102" s="3" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="O102" s="3" t="s">
         <v>954</v>
       </c>
       <c r="P102" s="3"/>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A103" s="5" t="s">
         <v>279</v>
       </c>
@@ -7440,17 +7420,17 @@
         <v>733</v>
       </c>
       <c r="M103" s="3" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="N103" s="3" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="O103" s="3" t="s">
         <v>954</v>
       </c>
       <c r="P103" s="3"/>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A104" s="5" t="s">
         <v>283</v>
       </c>
@@ -7493,7 +7473,7 @@
       </c>
       <c r="P104" s="3"/>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A105" s="5" t="s">
         <v>283</v>
       </c>
@@ -7536,7 +7516,7 @@
       </c>
       <c r="P105" s="3"/>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A106" s="5" t="s">
         <v>283</v>
       </c>
@@ -7579,7 +7559,7 @@
       </c>
       <c r="P106" s="3"/>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A107" s="5" t="s">
         <v>287</v>
       </c>
@@ -7622,7 +7602,7 @@
       </c>
       <c r="P107" s="3"/>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A108" s="5" t="s">
         <v>287</v>
       </c>
@@ -7665,7 +7645,7 @@
       </c>
       <c r="P108" s="3"/>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A109" s="5" t="s">
         <v>287</v>
       </c>
@@ -7708,7 +7688,7 @@
       </c>
       <c r="P109" s="3"/>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A110" s="5" t="s">
         <v>291</v>
       </c>
@@ -7751,7 +7731,7 @@
       </c>
       <c r="P110" s="3"/>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A111" s="5" t="s">
         <v>291</v>
       </c>
@@ -7794,7 +7774,7 @@
       </c>
       <c r="P111" s="3"/>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A112" s="5" t="s">
         <v>291</v>
       </c>
@@ -7837,7 +7817,7 @@
       </c>
       <c r="P112" s="3"/>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A113" s="5" t="s">
         <v>295</v>
       </c>
@@ -7880,7 +7860,7 @@
       </c>
       <c r="P113" s="3"/>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A114" s="5" t="s">
         <v>295</v>
       </c>
@@ -7923,7 +7903,7 @@
       </c>
       <c r="P114" s="3"/>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A115" s="5" t="s">
         <v>295</v>
       </c>
@@ -7966,7 +7946,7 @@
       </c>
       <c r="P115" s="3"/>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A116" s="5" t="s">
         <v>299</v>
       </c>
@@ -8009,7 +7989,7 @@
       </c>
       <c r="P116" s="3"/>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A117" s="5" t="s">
         <v>299</v>
       </c>
@@ -8052,7 +8032,7 @@
       </c>
       <c r="P117" s="3"/>
     </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A118" s="5" t="s">
         <v>299</v>
       </c>
@@ -8095,7 +8075,7 @@
       </c>
       <c r="P118" s="3"/>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A119" s="5" t="s">
         <v>303</v>
       </c>
@@ -8138,7 +8118,7 @@
       </c>
       <c r="P119" s="3"/>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A120" s="5" t="s">
         <v>303</v>
       </c>
@@ -8181,7 +8161,7 @@
       </c>
       <c r="P120" s="3"/>
     </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A121" s="5" t="s">
         <v>303</v>
       </c>
@@ -8224,7 +8204,7 @@
       </c>
       <c r="P121" s="3"/>
     </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A122" s="5" t="s">
         <v>307</v>
       </c>
@@ -8267,7 +8247,7 @@
       </c>
       <c r="P122" s="3"/>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A123" s="5" t="s">
         <v>307</v>
       </c>
@@ -8310,7 +8290,7 @@
       </c>
       <c r="P123" s="3"/>
     </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A124" s="5" t="s">
         <v>307</v>
       </c>
@@ -8353,7 +8333,7 @@
       </c>
       <c r="P124" s="3"/>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A125" s="5" t="s">
         <v>311</v>
       </c>
@@ -8396,7 +8376,7 @@
       </c>
       <c r="P125" s="3"/>
     </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A126" s="5" t="s">
         <v>311</v>
       </c>
@@ -8439,7 +8419,7 @@
       </c>
       <c r="P126" s="3"/>
     </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A127" s="5" t="s">
         <v>314</v>
       </c>
@@ -8482,7 +8462,7 @@
       </c>
       <c r="P127" s="3"/>
     </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A128" s="5" t="s">
         <v>314</v>
       </c>
@@ -8525,7 +8505,7 @@
       </c>
       <c r="P128" s="3"/>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A129" s="5" t="s">
         <v>317</v>
       </c>
@@ -8568,7 +8548,7 @@
       </c>
       <c r="P129" s="3"/>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A130" s="5" t="s">
         <v>319</v>
       </c>
@@ -8611,7 +8591,7 @@
       </c>
       <c r="P130" s="3"/>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A131" s="5" t="s">
         <v>321</v>
       </c>
@@ -8652,7 +8632,7 @@
       </c>
       <c r="P131" s="3"/>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A132" s="5" t="s">
         <v>323</v>
       </c>
@@ -8693,7 +8673,7 @@
       </c>
       <c r="P132" s="3"/>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A133" s="5" t="s">
         <v>325</v>
       </c>
@@ -8736,7 +8716,7 @@
       </c>
       <c r="P133" s="3"/>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A134" s="5" t="s">
         <v>325</v>
       </c>
@@ -8779,7 +8759,7 @@
       </c>
       <c r="P134" s="3"/>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A135" s="5" t="s">
         <v>325</v>
       </c>
@@ -8822,7 +8802,7 @@
       </c>
       <c r="P135" s="3"/>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A136" s="5" t="s">
         <v>329</v>
       </c>
@@ -8865,7 +8845,7 @@
       </c>
       <c r="P136" s="3"/>
     </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A137" s="5" t="s">
         <v>329</v>
       </c>
@@ -8906,7 +8886,7 @@
       </c>
       <c r="P137" s="3"/>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A138" s="5" t="s">
         <v>329</v>
       </c>
@@ -8949,7 +8929,7 @@
       </c>
       <c r="P138" s="3"/>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A139" s="5" t="s">
         <v>334</v>
       </c>
@@ -8990,7 +8970,7 @@
       </c>
       <c r="P139" s="3"/>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A140" s="5" t="s">
         <v>334</v>
       </c>
@@ -9033,7 +9013,7 @@
       </c>
       <c r="P140" s="3"/>
     </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A141" s="5" t="s">
         <v>334</v>
       </c>
@@ -9076,7 +9056,7 @@
       </c>
       <c r="P141" s="3"/>
     </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A142" s="5" t="s">
         <v>338</v>
       </c>
@@ -9117,7 +9097,7 @@
       </c>
       <c r="P142" s="3"/>
     </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A143" s="5" t="s">
         <v>338</v>
       </c>
@@ -9160,7 +9140,7 @@
       </c>
       <c r="P143" s="3"/>
     </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A144" s="5" t="s">
         <v>338</v>
       </c>
@@ -9203,19 +9183,15 @@
       </c>
       <c r="P144" s="3"/>
     </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A145" s="8" t="s">
         <v>373</v>
       </c>
       <c r="B145" s="8"/>
       <c r="C145" s="8"/>
       <c r="D145" s="8"/>
-      <c r="E145" s="8" t="s">
-        <v>373</v>
-      </c>
-      <c r="F145" s="8" t="s">
-        <v>373</v>
-      </c>
+      <c r="E145" s="8"/>
+      <c r="F145" s="8"/>
       <c r="G145" s="8"/>
       <c r="H145" s="8"/>
       <c r="I145" s="8"/>
@@ -9235,7 +9211,7 @@
       </c>
       <c r="P145" s="9"/>
     </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A146" s="5" t="s">
         <v>343</v>
       </c>
@@ -9264,20 +9240,20 @@
         <v>217</v>
       </c>
       <c r="L146" s="2" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="M146" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="N146" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="O146" s="3" t="s">
         <v>954</v>
       </c>
       <c r="P146" s="3"/>
     </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A147" s="5" t="s">
         <v>343</v>
       </c>
@@ -9306,20 +9282,20 @@
         <v>217</v>
       </c>
       <c r="L147" s="2" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="M147" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="N147" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="O147" s="3" t="s">
         <v>954</v>
       </c>
       <c r="P147" s="3"/>
     </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A148" s="5" t="s">
         <v>343</v>
       </c>
@@ -9348,20 +9324,20 @@
         <v>16</v>
       </c>
       <c r="L148" s="2" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="M148" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="N148" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="O148" s="3" t="s">
         <v>954</v>
       </c>
       <c r="P148" s="3"/>
     </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A149" s="5" t="s">
         <v>343</v>
       </c>
@@ -9390,20 +9366,20 @@
         <v>16</v>
       </c>
       <c r="L149" s="2" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="M149" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="N149" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="O149" s="3" t="s">
         <v>954</v>
       </c>
       <c r="P149" s="3"/>
     </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A150" s="5" t="s">
         <v>350</v>
       </c>
@@ -9432,20 +9408,20 @@
         <v>217</v>
       </c>
       <c r="L150" s="2" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="M150" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="N150" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="O150" s="3" t="s">
         <v>954</v>
       </c>
       <c r="P150" s="3"/>
     </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A151" s="5" t="s">
         <v>350</v>
       </c>
@@ -9474,20 +9450,20 @@
         <v>217</v>
       </c>
       <c r="L151" s="2" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="M151" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="N151" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="O151" s="3" t="s">
         <v>954</v>
       </c>
       <c r="P151" s="3"/>
     </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A152" s="5" t="s">
         <v>350</v>
       </c>
@@ -9516,20 +9492,20 @@
         <v>16</v>
       </c>
       <c r="L152" s="2" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="M152" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="N152" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="O152" s="3" t="s">
         <v>954</v>
       </c>
       <c r="P152" s="3"/>
     </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A153" s="5" t="s">
         <v>350</v>
       </c>
@@ -9558,20 +9534,20 @@
         <v>16</v>
       </c>
       <c r="L153" s="2" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="M153" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="N153" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="O153" s="3" t="s">
         <v>954</v>
       </c>
       <c r="P153" s="3"/>
     </row>
-    <row r="154" spans="1:16" ht="25.5" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:16" ht="25.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A154" s="5" t="s">
         <v>359</v>
       </c>
@@ -9600,20 +9576,20 @@
         <v>217</v>
       </c>
       <c r="L154" s="2" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="M154" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="N154" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="O154" s="3" t="s">
         <v>954</v>
       </c>
       <c r="P154" s="3"/>
     </row>
-    <row r="155" spans="1:16" ht="25.5" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:16" ht="25.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A155" s="5" t="s">
         <v>359</v>
       </c>
@@ -9642,20 +9618,20 @@
         <v>217</v>
       </c>
       <c r="L155" s="2" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="M155" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="N155" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="O155" s="3" t="s">
         <v>954</v>
       </c>
       <c r="P155" s="3"/>
     </row>
-    <row r="156" spans="1:16" ht="25.5" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:16" ht="25.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A156" s="5" t="s">
         <v>359</v>
       </c>
@@ -9684,20 +9660,20 @@
         <v>16</v>
       </c>
       <c r="L156" s="2" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="M156" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="N156" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="O156" s="3" t="s">
         <v>954</v>
       </c>
       <c r="P156" s="3"/>
     </row>
-    <row r="157" spans="1:16" ht="25.5" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:16" ht="25.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A157" s="5" t="s">
         <v>359</v>
       </c>
@@ -9726,20 +9702,20 @@
         <v>16</v>
       </c>
       <c r="L157" s="2" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="M157" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="N157" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="O157" s="3" t="s">
         <v>954</v>
       </c>
       <c r="P157" s="3"/>
     </row>
-    <row r="158" spans="1:16" ht="25.5" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:16" ht="25.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A158" s="5" t="s">
         <v>368</v>
       </c>
@@ -9768,20 +9744,20 @@
         <v>217</v>
       </c>
       <c r="L158" s="2" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="M158" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="N158" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="O158" s="3" t="s">
         <v>954</v>
       </c>
       <c r="P158" s="3"/>
     </row>
-    <row r="159" spans="1:16" ht="25.5" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:16" ht="25.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A159" s="5" t="s">
         <v>368</v>
       </c>
@@ -9810,20 +9786,20 @@
         <v>217</v>
       </c>
       <c r="L159" s="2" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="M159" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="N159" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="O159" s="3" t="s">
         <v>954</v>
       </c>
       <c r="P159" s="3"/>
     </row>
-    <row r="160" spans="1:16" ht="25.5" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:16" ht="25.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A160" s="5" t="s">
         <v>368</v>
       </c>
@@ -9852,20 +9828,20 @@
         <v>16</v>
       </c>
       <c r="L160" s="2" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="M160" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="N160" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="O160" s="3" t="s">
         <v>954</v>
       </c>
       <c r="P160" s="3"/>
     </row>
-    <row r="161" spans="1:16" ht="25.5" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:16" ht="25.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A161" s="5" t="s">
         <v>368</v>
       </c>
@@ -9894,32 +9870,28 @@
         <v>16</v>
       </c>
       <c r="L161" s="2" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="M161" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="N161" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="O161" s="3" t="s">
         <v>954</v>
       </c>
       <c r="P161" s="3"/>
     </row>
-    <row r="162" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A162" s="8" t="s">
         <v>393</v>
       </c>
       <c r="B162" s="8"/>
       <c r="C162" s="8"/>
       <c r="D162" s="8"/>
-      <c r="E162" s="8" t="s">
-        <v>393</v>
-      </c>
-      <c r="F162" s="8" t="s">
-        <v>393</v>
-      </c>
+      <c r="E162" s="8"/>
+      <c r="F162" s="8"/>
       <c r="G162" s="8"/>
       <c r="H162" s="8"/>
       <c r="I162" s="8"/>
@@ -9939,7 +9911,7 @@
       </c>
       <c r="P162" s="9"/>
     </row>
-    <row r="163" spans="1:16" ht="25.5" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:16" ht="25.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A163" s="5" t="s">
         <v>374</v>
       </c>
@@ -9962,7 +9934,7 @@
         <v>801</v>
       </c>
       <c r="H163" s="5" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="I163" s="5" t="s">
         <v>801</v>
@@ -9975,17 +9947,17 @@
         <v>733</v>
       </c>
       <c r="M163" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="N163" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="O163" s="3" t="s">
         <v>954</v>
       </c>
       <c r="P163" s="3"/>
     </row>
-    <row r="164" spans="1:16" ht="25.5" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:16" ht="25.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A164" s="5" t="s">
         <v>374</v>
       </c>
@@ -10008,7 +9980,7 @@
         <v>802</v>
       </c>
       <c r="H164" s="5" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="I164" s="5" t="s">
         <v>802</v>
@@ -10021,17 +9993,17 @@
         <v>733</v>
       </c>
       <c r="M164" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="N164" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="O164" s="3" t="s">
         <v>954</v>
       </c>
       <c r="P164" s="3"/>
     </row>
-    <row r="165" spans="1:16" ht="25.5" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:16" ht="25.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A165" s="5" t="s">
         <v>379</v>
       </c>
@@ -10067,17 +10039,17 @@
         <v>733</v>
       </c>
       <c r="M165" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="N165" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="O165" s="3" t="s">
         <v>954</v>
       </c>
       <c r="P165" s="3"/>
     </row>
-    <row r="166" spans="1:16" ht="25.5" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:16" ht="25.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A166" s="5" t="s">
         <v>379</v>
       </c>
@@ -10113,17 +10085,17 @@
         <v>733</v>
       </c>
       <c r="M166" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="N166" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="O166" s="3" t="s">
         <v>954</v>
       </c>
       <c r="P166" s="3"/>
     </row>
-    <row r="167" spans="1:16" ht="25.5" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:16" ht="25.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A167" s="5" t="s">
         <v>379</v>
       </c>
@@ -10159,17 +10131,17 @@
         <v>733</v>
       </c>
       <c r="M167" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="N167" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="O167" s="3" t="s">
         <v>954</v>
       </c>
       <c r="P167" s="3"/>
     </row>
-    <row r="168" spans="1:16" ht="25.5" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:16" ht="25.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A168" s="5" t="s">
         <v>379</v>
       </c>
@@ -10205,17 +10177,17 @@
         <v>733</v>
       </c>
       <c r="M168" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="N168" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="O168" s="3" t="s">
         <v>954</v>
       </c>
       <c r="P168" s="3"/>
     </row>
-    <row r="169" spans="1:16" ht="25.5" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:16" ht="25.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A169" s="5" t="s">
         <v>385</v>
       </c>
@@ -10251,17 +10223,17 @@
         <v>733</v>
       </c>
       <c r="M169" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="N169" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="O169" s="3" t="s">
         <v>954</v>
       </c>
       <c r="P169" s="3"/>
     </row>
-    <row r="170" spans="1:16" ht="25.5" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:16" ht="25.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A170" s="5" t="s">
         <v>385</v>
       </c>
@@ -10297,17 +10269,17 @@
         <v>733</v>
       </c>
       <c r="M170" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="N170" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="O170" s="3" t="s">
         <v>954</v>
       </c>
       <c r="P170" s="3"/>
     </row>
-    <row r="171" spans="1:16" ht="25.5" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:16" ht="25.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A171" s="5" t="s">
         <v>385</v>
       </c>
@@ -10343,17 +10315,17 @@
         <v>733</v>
       </c>
       <c r="M171" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="N171" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="O171" s="3" t="s">
         <v>954</v>
       </c>
       <c r="P171" s="3"/>
     </row>
-    <row r="172" spans="1:16" ht="25.5" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:16" ht="25.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A172" s="5" t="s">
         <v>385</v>
       </c>
@@ -10389,17 +10361,17 @@
         <v>733</v>
       </c>
       <c r="M172" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="N172" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="O172" s="3" t="s">
         <v>954</v>
       </c>
       <c r="P172" s="3"/>
     </row>
-    <row r="173" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A173" s="5" t="s">
         <v>390</v>
       </c>
@@ -10435,17 +10407,17 @@
         <v>733</v>
       </c>
       <c r="M173" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="N173" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="O173" s="3" t="s">
         <v>954</v>
       </c>
       <c r="P173" s="3"/>
     </row>
-    <row r="174" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A174" s="5" t="s">
         <v>390</v>
       </c>
@@ -10481,29 +10453,25 @@
         <v>733</v>
       </c>
       <c r="M174" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="N174" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="O174" s="3" t="s">
         <v>954</v>
       </c>
       <c r="P174" s="3"/>
     </row>
-    <row r="175" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A175" s="8" t="s">
         <v>418</v>
       </c>
       <c r="B175" s="8"/>
       <c r="C175" s="8"/>
       <c r="D175" s="8"/>
-      <c r="E175" s="8" t="s">
-        <v>418</v>
-      </c>
-      <c r="F175" s="8" t="s">
-        <v>418</v>
-      </c>
+      <c r="E175" s="8"/>
+      <c r="F175" s="8"/>
       <c r="G175" s="8"/>
       <c r="H175" s="8"/>
       <c r="I175" s="8"/>
@@ -10523,7 +10491,7 @@
       </c>
       <c r="P175" s="9"/>
     </row>
-    <row r="176" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A176" s="5" t="s">
         <v>394</v>
       </c>
@@ -10546,7 +10514,7 @@
         <v>394</v>
       </c>
       <c r="H176" s="5" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="I176" s="5" t="s">
         <v>764</v>
@@ -10559,17 +10527,17 @@
         <v>733</v>
       </c>
       <c r="M176" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="N176" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="O176" s="3" t="s">
         <v>954</v>
       </c>
       <c r="P176" s="3"/>
     </row>
-    <row r="177" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A177" s="5" t="s">
         <v>394</v>
       </c>
@@ -10592,7 +10560,7 @@
         <v>394</v>
       </c>
       <c r="H177" s="5" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="I177" s="5" t="s">
         <v>764</v>
@@ -10605,17 +10573,17 @@
         <v>733</v>
       </c>
       <c r="M177" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="N177" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="O177" s="3" t="s">
         <v>954</v>
       </c>
       <c r="P177" s="3"/>
     </row>
-    <row r="178" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A178" s="5" t="s">
         <v>394</v>
       </c>
@@ -10636,7 +10604,7 @@
         <v>394</v>
       </c>
       <c r="H178" s="5" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="I178" s="5" t="s">
         <v>764</v>
@@ -10649,17 +10617,17 @@
         <v>733</v>
       </c>
       <c r="M178" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="N178" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="O178" s="3" t="s">
         <v>954</v>
       </c>
       <c r="P178" s="3"/>
     </row>
-    <row r="179" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A179" s="5" t="s">
         <v>394</v>
       </c>
@@ -10680,7 +10648,7 @@
         <v>394</v>
       </c>
       <c r="H179" s="5" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="I179" s="5" t="s">
         <v>764</v>
@@ -10693,17 +10661,17 @@
         <v>733</v>
       </c>
       <c r="M179" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="N179" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="O179" s="3" t="s">
         <v>954</v>
       </c>
       <c r="P179" s="3"/>
     </row>
-    <row r="180" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A180" s="5" t="s">
         <v>399</v>
       </c>
@@ -10726,7 +10694,7 @@
         <v>399</v>
       </c>
       <c r="H180" s="5" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="I180" s="5" t="s">
         <v>764</v>
@@ -10739,17 +10707,17 @@
         <v>733</v>
       </c>
       <c r="M180" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="N180" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="O180" s="3" t="s">
         <v>954</v>
       </c>
       <c r="P180" s="3"/>
     </row>
-    <row r="181" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A181" s="5" t="s">
         <v>399</v>
       </c>
@@ -10772,7 +10740,7 @@
         <v>399</v>
       </c>
       <c r="H181" s="5" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="I181" s="5" t="s">
         <v>764</v>
@@ -10785,17 +10753,17 @@
         <v>733</v>
       </c>
       <c r="M181" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="N181" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="O181" s="3" t="s">
         <v>954</v>
       </c>
       <c r="P181" s="3"/>
     </row>
-    <row r="182" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A182" s="5" t="s">
         <v>402</v>
       </c>
@@ -10818,7 +10786,7 @@
         <v>402</v>
       </c>
       <c r="H182" s="5" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="I182" s="5" t="s">
         <v>765</v>
@@ -10831,17 +10799,17 @@
         <v>733</v>
       </c>
       <c r="M182" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="N182" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="O182" s="3" t="s">
         <v>954</v>
       </c>
       <c r="P182" s="3"/>
     </row>
-    <row r="183" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A183" s="5" t="s">
         <v>402</v>
       </c>
@@ -10864,7 +10832,7 @@
         <v>402</v>
       </c>
       <c r="H183" s="5" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="I183" s="5" t="s">
         <v>765</v>
@@ -10877,17 +10845,17 @@
         <v>733</v>
       </c>
       <c r="M183" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="N183" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="O183" s="3" t="s">
         <v>954</v>
       </c>
       <c r="P183" s="3"/>
     </row>
-    <row r="184" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A184" s="5" t="s">
         <v>402</v>
       </c>
@@ -10908,7 +10876,7 @@
         <v>402</v>
       </c>
       <c r="H184" s="5" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="I184" s="5" t="s">
         <v>765</v>
@@ -10921,17 +10889,17 @@
         <v>733</v>
       </c>
       <c r="M184" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="N184" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="O184" s="3" t="s">
         <v>954</v>
       </c>
       <c r="P184" s="3"/>
     </row>
-    <row r="185" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A185" s="5" t="s">
         <v>402</v>
       </c>
@@ -10952,7 +10920,7 @@
         <v>402</v>
       </c>
       <c r="H185" s="5" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="I185" s="5" t="s">
         <v>765</v>
@@ -10965,17 +10933,17 @@
         <v>733</v>
       </c>
       <c r="M185" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="N185" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="O185" s="3" t="s">
         <v>954</v>
       </c>
       <c r="P185" s="3"/>
     </row>
-    <row r="186" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A186" s="5" t="s">
         <v>343</v>
       </c>
@@ -10998,7 +10966,7 @@
         <v>343</v>
       </c>
       <c r="H186" s="2" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="I186" s="5" t="s">
         <v>766</v>
@@ -11011,17 +10979,17 @@
         <v>733</v>
       </c>
       <c r="M186" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="N186" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="O186" s="3" t="s">
         <v>954</v>
       </c>
       <c r="P186" s="3"/>
     </row>
-    <row r="187" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A187" s="5" t="s">
         <v>343</v>
       </c>
@@ -11044,7 +11012,7 @@
         <v>343</v>
       </c>
       <c r="H187" s="2" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="I187" s="5" t="s">
         <v>766</v>
@@ -11057,17 +11025,17 @@
         <v>733</v>
       </c>
       <c r="M187" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="N187" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="O187" s="3" t="s">
         <v>954</v>
       </c>
       <c r="P187" s="3"/>
     </row>
-    <row r="188" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A188" s="5" t="s">
         <v>343</v>
       </c>
@@ -11090,7 +11058,7 @@
         <v>343</v>
       </c>
       <c r="H188" s="2" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="I188" s="5" t="s">
         <v>766</v>
@@ -11103,17 +11071,17 @@
         <v>733</v>
       </c>
       <c r="M188" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="N188" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="O188" s="3" t="s">
         <v>954</v>
       </c>
       <c r="P188" s="3"/>
     </row>
-    <row r="189" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A189" s="5" t="s">
         <v>343</v>
       </c>
@@ -11136,7 +11104,7 @@
         <v>343</v>
       </c>
       <c r="H189" s="2" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="I189" s="5" t="s">
         <v>766</v>
@@ -11149,17 +11117,17 @@
         <v>733</v>
       </c>
       <c r="M189" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="N189" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="O189" s="3" t="s">
         <v>954</v>
       </c>
       <c r="P189" s="3"/>
     </row>
-    <row r="190" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A190" s="5" t="s">
         <v>407</v>
       </c>
@@ -11182,7 +11150,7 @@
         <v>407</v>
       </c>
       <c r="H190" s="2" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="I190" s="5" t="s">
         <v>766</v>
@@ -11195,17 +11163,17 @@
         <v>733</v>
       </c>
       <c r="M190" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="N190" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="O190" s="3" t="s">
         <v>954</v>
       </c>
       <c r="P190" s="3"/>
     </row>
-    <row r="191" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A191" s="5" t="s">
         <v>407</v>
       </c>
@@ -11228,7 +11196,7 @@
         <v>407</v>
       </c>
       <c r="H191" s="2" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="I191" s="5" t="s">
         <v>766</v>
@@ -11241,17 +11209,17 @@
         <v>733</v>
       </c>
       <c r="M191" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="N191" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="O191" s="3" t="s">
         <v>954</v>
       </c>
       <c r="P191" s="3"/>
     </row>
-    <row r="192" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A192" s="5" t="s">
         <v>410</v>
       </c>
@@ -11274,7 +11242,7 @@
         <v>410</v>
       </c>
       <c r="H192" s="2" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="I192" s="5" t="s">
         <v>767</v>
@@ -11287,17 +11255,17 @@
         <v>733</v>
       </c>
       <c r="M192" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="N192" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="O192" s="3" t="s">
         <v>954</v>
       </c>
       <c r="P192" s="3"/>
     </row>
-    <row r="193" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A193" s="5" t="s">
         <v>410</v>
       </c>
@@ -11320,7 +11288,7 @@
         <v>410</v>
       </c>
       <c r="H193" s="2" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="I193" s="5" t="s">
         <v>767</v>
@@ -11333,17 +11301,17 @@
         <v>733</v>
       </c>
       <c r="M193" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="N193" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="O193" s="3" t="s">
         <v>954</v>
       </c>
       <c r="P193" s="3"/>
     </row>
-    <row r="194" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A194" s="5" t="s">
         <v>410</v>
       </c>
@@ -11366,7 +11334,7 @@
         <v>410</v>
       </c>
       <c r="H194" s="2" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="I194" s="5" t="s">
         <v>767</v>
@@ -11379,17 +11347,17 @@
         <v>733</v>
       </c>
       <c r="M194" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="N194" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="O194" s="3" t="s">
         <v>954</v>
       </c>
       <c r="P194" s="3"/>
     </row>
-    <row r="195" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A195" s="5" t="s">
         <v>410</v>
       </c>
@@ -11412,7 +11380,7 @@
         <v>410</v>
       </c>
       <c r="H195" s="2" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="I195" s="5" t="s">
         <v>767</v>
@@ -11425,17 +11393,17 @@
         <v>733</v>
       </c>
       <c r="M195" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="N195" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="O195" s="3" t="s">
         <v>954</v>
       </c>
       <c r="P195" s="3"/>
     </row>
-    <row r="196" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A196" s="5" t="s">
         <v>415</v>
       </c>
@@ -11458,7 +11426,7 @@
         <v>415</v>
       </c>
       <c r="H196" s="2" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="I196" s="5" t="s">
         <v>767</v>
@@ -11471,17 +11439,17 @@
         <v>733</v>
       </c>
       <c r="M196" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="N196" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="O196" s="3" t="s">
         <v>954</v>
       </c>
       <c r="P196" s="3"/>
     </row>
-    <row r="197" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A197" s="5" t="s">
         <v>415</v>
       </c>
@@ -11504,7 +11472,7 @@
         <v>415</v>
       </c>
       <c r="H197" s="2" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="I197" s="5" t="s">
         <v>767</v>
@@ -11517,17 +11485,17 @@
         <v>733</v>
       </c>
       <c r="M197" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="N197" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="O197" s="3" t="s">
         <v>954</v>
       </c>
       <c r="P197" s="3"/>
     </row>
-    <row r="198" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A198" s="8"/>
       <c r="B198" s="8"/>
       <c r="C198" s="8"/>
@@ -11549,7 +11517,7 @@
       </c>
       <c r="P198" s="9"/>
     </row>
-    <row r="199" spans="1:16" ht="24.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:16" ht="24.85" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A199" s="5" t="s">
         <v>419</v>
       </c>
@@ -11588,17 +11556,17 @@
         <v>733</v>
       </c>
       <c r="M199" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="N199" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="O199" s="3" t="s">
         <v>954</v>
       </c>
       <c r="P199" s="3"/>
     </row>
-    <row r="200" spans="1:16" ht="24.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:16" ht="24.85" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A200" s="5" t="s">
         <v>419</v>
       </c>
@@ -11637,17 +11605,17 @@
         <v>733</v>
       </c>
       <c r="M200" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="N200" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="O200" s="3" t="s">
         <v>954</v>
       </c>
       <c r="P200" s="3"/>
     </row>
-    <row r="201" spans="1:16" ht="24.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:16" ht="24.85" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A201" s="5" t="s">
         <v>419</v>
       </c>
@@ -11686,17 +11654,17 @@
         <v>733</v>
       </c>
       <c r="M201" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="N201" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="O201" s="3" t="s">
         <v>954</v>
       </c>
       <c r="P201" s="3"/>
     </row>
-    <row r="202" spans="1:16" ht="24.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:16" ht="24.85" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A202" s="5" t="s">
         <v>419</v>
       </c>
@@ -11735,17 +11703,17 @@
         <v>733</v>
       </c>
       <c r="M202" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="N202" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="O202" s="3" t="s">
         <v>954</v>
       </c>
       <c r="P202" s="3"/>
     </row>
-    <row r="203" spans="1:16" ht="24.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:16" ht="24.85" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A203" s="5" t="s">
         <v>424</v>
       </c>
@@ -11784,17 +11752,17 @@
         <v>733</v>
       </c>
       <c r="M203" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="N203" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="O203" s="3" t="s">
         <v>954</v>
       </c>
       <c r="P203" s="3"/>
     </row>
-    <row r="204" spans="1:16" ht="24.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:16" ht="24.85" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A204" s="5" t="s">
         <v>424</v>
       </c>
@@ -11833,17 +11801,17 @@
         <v>733</v>
       </c>
       <c r="M204" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="N204" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="O204" s="3" t="s">
         <v>954</v>
       </c>
       <c r="P204" s="3"/>
     </row>
-    <row r="205" spans="1:16" ht="24.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:16" ht="24.85" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A205" s="5" t="s">
         <v>424</v>
       </c>
@@ -11882,17 +11850,17 @@
         <v>733</v>
       </c>
       <c r="M205" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="N205" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="O205" s="3" t="s">
         <v>954</v>
       </c>
       <c r="P205" s="3"/>
     </row>
-    <row r="206" spans="1:16" ht="24.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:16" ht="24.85" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A206" s="5" t="s">
         <v>424</v>
       </c>
@@ -11931,17 +11899,17 @@
         <v>733</v>
       </c>
       <c r="M206" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="N206" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="O206" s="3" t="s">
         <v>954</v>
       </c>
       <c r="P206" s="3"/>
     </row>
-    <row r="207" spans="1:16" ht="24.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:16" ht="24.85" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A207" s="5" t="s">
         <v>424</v>
       </c>
@@ -11980,17 +11948,17 @@
         <v>733</v>
       </c>
       <c r="M207" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="N207" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="O207" s="3" t="s">
         <v>954</v>
       </c>
       <c r="P207" s="3"/>
     </row>
-    <row r="208" spans="1:16" ht="24.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:16" ht="24.85" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A208" s="5" t="s">
         <v>424</v>
       </c>
@@ -12029,17 +11997,17 @@
         <v>733</v>
       </c>
       <c r="M208" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="N208" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="O208" s="3" t="s">
         <v>954</v>
       </c>
       <c r="P208" s="3"/>
     </row>
-    <row r="209" spans="1:16" ht="24.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:16" ht="24.85" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A209" s="5" t="s">
         <v>424</v>
       </c>
@@ -12078,17 +12046,17 @@
         <v>733</v>
       </c>
       <c r="M209" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="N209" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="O209" s="3" t="s">
         <v>954</v>
       </c>
       <c r="P209" s="3"/>
     </row>
-    <row r="210" spans="1:16" ht="24.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:16" ht="24.85" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A210" s="5" t="s">
         <v>424</v>
       </c>
@@ -12127,17 +12095,17 @@
         <v>733</v>
       </c>
       <c r="M210" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="N210" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="O210" s="3" t="s">
         <v>954</v>
       </c>
       <c r="P210" s="3"/>
     </row>
-    <row r="211" spans="1:16" ht="24.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:16" ht="24.85" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A211" s="5" t="s">
         <v>437</v>
       </c>
@@ -12176,17 +12144,17 @@
         <v>733</v>
       </c>
       <c r="M211" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="N211" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="O211" s="3" t="s">
         <v>954</v>
       </c>
       <c r="P211" s="3"/>
     </row>
-    <row r="212" spans="1:16" ht="24.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:16" ht="24.85" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A212" s="5" t="s">
         <v>437</v>
       </c>
@@ -12225,17 +12193,17 @@
         <v>733</v>
       </c>
       <c r="M212" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="N212" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="O212" s="3" t="s">
         <v>954</v>
       </c>
       <c r="P212" s="3"/>
     </row>
-    <row r="213" spans="1:16" ht="24.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:16" ht="24.85" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A213" s="5" t="s">
         <v>437</v>
       </c>
@@ -12274,17 +12242,17 @@
         <v>733</v>
       </c>
       <c r="M213" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="N213" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="O213" s="3" t="s">
         <v>954</v>
       </c>
       <c r="P213" s="3"/>
     </row>
-    <row r="214" spans="1:16" ht="24.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:16" ht="24.85" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A214" s="5" t="s">
         <v>437</v>
       </c>
@@ -12323,17 +12291,17 @@
         <v>733</v>
       </c>
       <c r="M214" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="N214" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="O214" s="3" t="s">
         <v>954</v>
       </c>
       <c r="P214" s="3"/>
     </row>
-    <row r="215" spans="1:16" ht="24.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:16" ht="24.85" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A215" s="5" t="s">
         <v>437</v>
       </c>
@@ -12372,17 +12340,17 @@
         <v>733</v>
       </c>
       <c r="M215" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="N215" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="O215" s="3" t="s">
         <v>954</v>
       </c>
       <c r="P215" s="3"/>
     </row>
-    <row r="216" spans="1:16" ht="24.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:16" ht="24.85" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A216" s="5" t="s">
         <v>437</v>
       </c>
@@ -12421,17 +12389,17 @@
         <v>733</v>
       </c>
       <c r="M216" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="N216" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="O216" s="3" t="s">
         <v>954</v>
       </c>
       <c r="P216" s="3"/>
     </row>
-    <row r="217" spans="1:16" ht="24.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:16" ht="24.85" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A217" s="5" t="s">
         <v>437</v>
       </c>
@@ -12470,17 +12438,17 @@
         <v>733</v>
       </c>
       <c r="M217" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="N217" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="O217" s="3" t="s">
         <v>954</v>
       </c>
       <c r="P217" s="3"/>
     </row>
-    <row r="218" spans="1:16" ht="24.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:16" ht="24.85" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A218" s="5" t="s">
         <v>437</v>
       </c>
@@ -12519,17 +12487,17 @@
         <v>733</v>
       </c>
       <c r="M218" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="N218" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="O218" s="3" t="s">
         <v>954</v>
       </c>
       <c r="P218" s="3"/>
     </row>
-    <row r="219" spans="1:16" ht="24.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:16" ht="24.85" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A219" s="5" t="s">
         <v>443</v>
       </c>
@@ -12568,17 +12536,17 @@
         <v>733</v>
       </c>
       <c r="M219" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="N219" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="O219" s="3" t="s">
         <v>954</v>
       </c>
       <c r="P219" s="3"/>
     </row>
-    <row r="220" spans="1:16" ht="24.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:16" ht="24.85" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A220" s="5" t="s">
         <v>443</v>
       </c>
@@ -12617,17 +12585,17 @@
         <v>733</v>
       </c>
       <c r="M220" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="N220" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="O220" s="3" t="s">
         <v>954</v>
       </c>
       <c r="P220" s="3"/>
     </row>
-    <row r="221" spans="1:16" ht="24.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:16" ht="24.85" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A221" s="5" t="s">
         <v>443</v>
       </c>
@@ -12666,17 +12634,17 @@
         <v>733</v>
       </c>
       <c r="M221" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="N221" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="O221" s="3" t="s">
         <v>954</v>
       </c>
       <c r="P221" s="3"/>
     </row>
-    <row r="222" spans="1:16" ht="24.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:16" ht="24.85" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A222" s="5" t="s">
         <v>443</v>
       </c>
@@ -12715,17 +12683,17 @@
         <v>733</v>
       </c>
       <c r="M222" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="N222" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="O222" s="3" t="s">
         <v>954</v>
       </c>
       <c r="P222" s="3"/>
     </row>
-    <row r="223" spans="1:16" ht="24.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:16" ht="24.85" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A223" s="5" t="s">
         <v>443</v>
       </c>
@@ -12764,17 +12732,17 @@
         <v>733</v>
       </c>
       <c r="M223" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="N223" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="O223" s="3" t="s">
         <v>954</v>
       </c>
       <c r="P223" s="3"/>
     </row>
-    <row r="224" spans="1:16" ht="24.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:16" ht="24.85" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A224" s="5" t="s">
         <v>443</v>
       </c>
@@ -12813,17 +12781,17 @@
         <v>733</v>
       </c>
       <c r="M224" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="N224" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="O224" s="3" t="s">
         <v>954</v>
       </c>
       <c r="P224" s="3"/>
     </row>
-    <row r="225" spans="1:16" ht="24.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:16" ht="24.85" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A225" s="5" t="s">
         <v>443</v>
       </c>
@@ -12862,17 +12830,17 @@
         <v>733</v>
       </c>
       <c r="M225" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="N225" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="O225" s="3" t="s">
         <v>954</v>
       </c>
       <c r="P225" s="3"/>
     </row>
-    <row r="226" spans="1:16" ht="24.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:16" ht="24.85" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A226" s="5" t="s">
         <v>443</v>
       </c>
@@ -12911,17 +12879,17 @@
         <v>733</v>
       </c>
       <c r="M226" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="N226" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="O226" s="3" t="s">
         <v>954</v>
       </c>
       <c r="P226" s="3"/>
     </row>
-    <row r="227" spans="1:16" ht="24.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:16" ht="24.85" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A227" s="5" t="s">
         <v>448</v>
       </c>
@@ -12960,17 +12928,17 @@
         <v>733</v>
       </c>
       <c r="M227" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="N227" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="O227" s="3" t="s">
         <v>954</v>
       </c>
       <c r="P227" s="3"/>
     </row>
-    <row r="228" spans="1:16" ht="24.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:16" ht="24.85" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A228" s="5" t="s">
         <v>448</v>
       </c>
@@ -13009,17 +12977,17 @@
         <v>733</v>
       </c>
       <c r="M228" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="N228" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="O228" s="3" t="s">
         <v>954</v>
       </c>
       <c r="P228" s="3"/>
     </row>
-    <row r="229" spans="1:16" ht="24.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:16" ht="24.85" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A229" s="5" t="s">
         <v>448</v>
       </c>
@@ -13058,17 +13026,17 @@
         <v>733</v>
       </c>
       <c r="M229" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="N229" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="O229" s="3" t="s">
         <v>954</v>
       </c>
       <c r="P229" s="3"/>
     </row>
-    <row r="230" spans="1:16" ht="24.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:16" ht="24.85" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A230" s="5" t="s">
         <v>448</v>
       </c>
@@ -13107,17 +13075,17 @@
         <v>733</v>
       </c>
       <c r="M230" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="N230" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="O230" s="3" t="s">
         <v>954</v>
       </c>
       <c r="P230" s="3"/>
     </row>
-    <row r="231" spans="1:16" ht="24.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:16" ht="24.85" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A231" s="5" t="s">
         <v>451</v>
       </c>
@@ -13156,17 +13124,17 @@
         <v>733</v>
       </c>
       <c r="M231" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="N231" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="O231" s="3" t="s">
         <v>954</v>
       </c>
       <c r="P231" s="3"/>
     </row>
-    <row r="232" spans="1:16" ht="24.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:16" ht="24.85" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A232" s="5" t="s">
         <v>451</v>
       </c>
@@ -13205,17 +13173,17 @@
         <v>733</v>
       </c>
       <c r="M232" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="N232" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="O232" s="3" t="s">
         <v>954</v>
       </c>
       <c r="P232" s="3"/>
     </row>
-    <row r="233" spans="1:16" ht="24.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:16" ht="24.85" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A233" s="5" t="s">
         <v>451</v>
       </c>
@@ -13254,17 +13222,17 @@
         <v>733</v>
       </c>
       <c r="M233" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="N233" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="O233" s="3" t="s">
         <v>954</v>
       </c>
       <c r="P233" s="3"/>
     </row>
-    <row r="234" spans="1:16" ht="24.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:16" ht="24.85" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A234" s="5" t="s">
         <v>451</v>
       </c>
@@ -13303,17 +13271,17 @@
         <v>733</v>
       </c>
       <c r="M234" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="N234" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="O234" s="3" t="s">
         <v>954</v>
       </c>
       <c r="P234" s="3"/>
     </row>
-    <row r="235" spans="1:16" ht="24.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:16" ht="24.85" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A235" s="5" t="s">
         <v>451</v>
       </c>
@@ -13352,17 +13320,17 @@
         <v>733</v>
       </c>
       <c r="M235" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="N235" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="O235" s="3" t="s">
         <v>954</v>
       </c>
       <c r="P235" s="3"/>
     </row>
-    <row r="236" spans="1:16" ht="24.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:16" ht="24.85" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A236" s="5" t="s">
         <v>451</v>
       </c>
@@ -13401,17 +13369,17 @@
         <v>733</v>
       </c>
       <c r="M236" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="N236" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="O236" s="3" t="s">
         <v>954</v>
       </c>
       <c r="P236" s="3"/>
     </row>
-    <row r="237" spans="1:16" ht="24.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:16" ht="24.85" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A237" s="5" t="s">
         <v>451</v>
       </c>
@@ -13450,17 +13418,17 @@
         <v>733</v>
       </c>
       <c r="M237" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="N237" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="O237" s="3" t="s">
         <v>954</v>
       </c>
       <c r="P237" s="3"/>
     </row>
-    <row r="238" spans="1:16" ht="24.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:16" ht="24.85" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A238" s="5" t="s">
         <v>451</v>
       </c>
@@ -13499,17 +13467,17 @@
         <v>733</v>
       </c>
       <c r="M238" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="N238" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="O238" s="3" t="s">
         <v>954</v>
       </c>
       <c r="P238" s="3"/>
     </row>
-    <row r="239" spans="1:16" ht="24.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:16" ht="24.85" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A239" s="5" t="s">
         <v>456</v>
       </c>
@@ -13548,17 +13516,17 @@
         <v>733</v>
       </c>
       <c r="M239" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="N239" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="O239" s="3" t="s">
         <v>954</v>
       </c>
       <c r="P239" s="3"/>
     </row>
-    <row r="240" spans="1:16" ht="24.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:16" ht="24.85" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A240" s="5" t="s">
         <v>456</v>
       </c>
@@ -13597,17 +13565,17 @@
         <v>733</v>
       </c>
       <c r="M240" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="N240" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="O240" s="3" t="s">
         <v>954</v>
       </c>
       <c r="P240" s="3"/>
     </row>
-    <row r="241" spans="1:16" ht="24.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:16" ht="24.85" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A241" s="5" t="s">
         <v>456</v>
       </c>
@@ -13646,17 +13614,17 @@
         <v>733</v>
       </c>
       <c r="M241" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="N241" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="O241" s="3" t="s">
         <v>954</v>
       </c>
       <c r="P241" s="3"/>
     </row>
-    <row r="242" spans="1:16" ht="24.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:16" ht="24.85" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A242" s="5" t="s">
         <v>456</v>
       </c>
@@ -13695,17 +13663,17 @@
         <v>733</v>
       </c>
       <c r="M242" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="N242" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="O242" s="3" t="s">
         <v>954</v>
       </c>
       <c r="P242" s="3"/>
     </row>
-    <row r="243" spans="1:16" ht="24.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:16" ht="24.85" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A243" s="5" t="s">
         <v>456</v>
       </c>
@@ -13744,17 +13712,17 @@
         <v>733</v>
       </c>
       <c r="M243" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="N243" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="O243" s="3" t="s">
         <v>954</v>
       </c>
       <c r="P243" s="3"/>
     </row>
-    <row r="244" spans="1:16" ht="24.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:16" ht="24.85" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A244" s="5" t="s">
         <v>456</v>
       </c>
@@ -13793,17 +13761,17 @@
         <v>733</v>
       </c>
       <c r="M244" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="N244" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="O244" s="3" t="s">
         <v>954</v>
       </c>
       <c r="P244" s="3"/>
     </row>
-    <row r="245" spans="1:16" ht="24.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:16" ht="24.85" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A245" s="5" t="s">
         <v>456</v>
       </c>
@@ -13842,17 +13810,17 @@
         <v>733</v>
       </c>
       <c r="M245" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="N245" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="O245" s="3" t="s">
         <v>954</v>
       </c>
       <c r="P245" s="3"/>
     </row>
-    <row r="246" spans="1:16" ht="24.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:16" ht="24.85" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A246" s="5" t="s">
         <v>456</v>
       </c>
@@ -13891,17 +13859,17 @@
         <v>733</v>
       </c>
       <c r="M246" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="N246" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="O246" s="3" t="s">
         <v>954</v>
       </c>
       <c r="P246" s="3"/>
     </row>
-    <row r="247" spans="1:16" ht="24.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:16" ht="24.85" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A247" s="5" t="s">
         <v>461</v>
       </c>
@@ -13940,17 +13908,17 @@
         <v>733</v>
       </c>
       <c r="M247" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="N247" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="O247" s="3" t="s">
         <v>954</v>
       </c>
       <c r="P247" s="3"/>
     </row>
-    <row r="248" spans="1:16" ht="24.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:16" ht="24.85" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A248" s="5" t="s">
         <v>461</v>
       </c>
@@ -13989,17 +13957,17 @@
         <v>733</v>
       </c>
       <c r="M248" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="N248" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="O248" s="3" t="s">
         <v>954</v>
       </c>
       <c r="P248" s="3"/>
     </row>
-    <row r="249" spans="1:16" ht="24.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:16" ht="24.85" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A249" s="5" t="s">
         <v>461</v>
       </c>
@@ -14038,17 +14006,17 @@
         <v>733</v>
       </c>
       <c r="M249" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="N249" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="O249" s="3" t="s">
         <v>954</v>
       </c>
       <c r="P249" s="3"/>
     </row>
-    <row r="250" spans="1:16" ht="24.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:16" ht="24.85" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A250" s="5" t="s">
         <v>461</v>
       </c>
@@ -14087,17 +14055,17 @@
         <v>733</v>
       </c>
       <c r="M250" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="N250" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="O250" s="3" t="s">
         <v>954</v>
       </c>
       <c r="P250" s="3"/>
     </row>
-    <row r="251" spans="1:16" ht="24.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:16" ht="24.85" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A251" s="5" t="s">
         <v>461</v>
       </c>
@@ -14136,17 +14104,17 @@
         <v>733</v>
       </c>
       <c r="M251" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="N251" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="O251" s="3" t="s">
         <v>954</v>
       </c>
       <c r="P251" s="3"/>
     </row>
-    <row r="252" spans="1:16" ht="24.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:16" ht="24.85" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A252" s="5" t="s">
         <v>461</v>
       </c>
@@ -14185,17 +14153,17 @@
         <v>733</v>
       </c>
       <c r="M252" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="N252" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="O252" s="3" t="s">
         <v>954</v>
       </c>
       <c r="P252" s="3"/>
     </row>
-    <row r="253" spans="1:16" ht="24.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:16" ht="24.85" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A253" s="5" t="s">
         <v>461</v>
       </c>
@@ -14234,17 +14202,17 @@
         <v>733</v>
       </c>
       <c r="M253" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="N253" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="O253" s="3" t="s">
         <v>954</v>
       </c>
       <c r="P253" s="3"/>
     </row>
-    <row r="254" spans="1:16" ht="24.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:16" ht="24.85" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A254" s="5" t="s">
         <v>461</v>
       </c>
@@ -14283,17 +14251,17 @@
         <v>733</v>
       </c>
       <c r="M254" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="N254" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="O254" s="3" t="s">
         <v>954</v>
       </c>
       <c r="P254" s="3"/>
     </row>
-    <row r="255" spans="1:16" ht="24.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:16" ht="24.85" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A255" s="5" t="s">
         <v>470</v>
       </c>
@@ -14332,17 +14300,17 @@
         <v>733</v>
       </c>
       <c r="M255" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="N255" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="O255" s="3" t="s">
         <v>954</v>
       </c>
       <c r="P255" s="3"/>
     </row>
-    <row r="256" spans="1:16" ht="24.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:16" ht="24.85" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A256" s="5" t="s">
         <v>470</v>
       </c>
@@ -14381,17 +14349,17 @@
         <v>733</v>
       </c>
       <c r="M256" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="N256" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="O256" s="3" t="s">
         <v>954</v>
       </c>
       <c r="P256" s="3"/>
     </row>
-    <row r="257" spans="1:16" ht="24.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:16" ht="24.85" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A257" s="5" t="s">
         <v>470</v>
       </c>
@@ -14430,17 +14398,17 @@
         <v>733</v>
       </c>
       <c r="M257" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="N257" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="O257" s="3" t="s">
         <v>954</v>
       </c>
       <c r="P257" s="3"/>
     </row>
-    <row r="258" spans="1:16" ht="24.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:16" ht="24.85" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A258" s="5" t="s">
         <v>470</v>
       </c>
@@ -14479,17 +14447,17 @@
         <v>733</v>
       </c>
       <c r="M258" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="N258" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="O258" s="3" t="s">
         <v>954</v>
       </c>
       <c r="P258" s="3"/>
     </row>
-    <row r="259" spans="1:16" ht="24.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:16" ht="24.85" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A259" s="5" t="s">
         <v>470</v>
       </c>
@@ -14528,17 +14496,17 @@
         <v>733</v>
       </c>
       <c r="M259" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="N259" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="O259" s="3" t="s">
         <v>954</v>
       </c>
       <c r="P259" s="3"/>
     </row>
-    <row r="260" spans="1:16" ht="24.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:16" ht="24.85" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A260" s="5" t="s">
         <v>470</v>
       </c>
@@ -14577,17 +14545,17 @@
         <v>733</v>
       </c>
       <c r="M260" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="N260" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="O260" s="3" t="s">
         <v>954</v>
       </c>
       <c r="P260" s="3"/>
     </row>
-    <row r="261" spans="1:16" ht="24.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:16" ht="24.85" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A261" s="5" t="s">
         <v>470</v>
       </c>
@@ -14626,17 +14594,17 @@
         <v>733</v>
       </c>
       <c r="M261" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="N261" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="O261" s="3" t="s">
         <v>954</v>
       </c>
       <c r="P261" s="3"/>
     </row>
-    <row r="262" spans="1:16" ht="24.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:16" ht="24.85" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A262" s="5" t="s">
         <v>470</v>
       </c>
@@ -14675,17 +14643,17 @@
         <v>733</v>
       </c>
       <c r="M262" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="N262" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="O262" s="3" t="s">
         <v>954</v>
       </c>
       <c r="P262" s="3"/>
     </row>
-    <row r="263" spans="1:16" ht="24.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="263" spans="1:16" ht="24.85" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A263" s="5" t="s">
         <v>479</v>
       </c>
@@ -14724,17 +14692,17 @@
         <v>733</v>
       </c>
       <c r="M263" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="N263" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="O263" s="3" t="s">
         <v>954</v>
       </c>
       <c r="P263" s="3"/>
     </row>
-    <row r="264" spans="1:16" ht="24.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="264" spans="1:16" ht="24.85" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A264" s="5" t="s">
         <v>479</v>
       </c>
@@ -14773,17 +14741,17 @@
         <v>733</v>
       </c>
       <c r="M264" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="N264" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="O264" s="3" t="s">
         <v>954</v>
       </c>
       <c r="P264" s="3"/>
     </row>
-    <row r="265" spans="1:16" ht="24.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="265" spans="1:16" ht="24.85" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A265" s="5" t="s">
         <v>479</v>
       </c>
@@ -14822,17 +14790,17 @@
         <v>733</v>
       </c>
       <c r="M265" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="N265" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="O265" s="3" t="s">
         <v>954</v>
       </c>
       <c r="P265" s="3"/>
     </row>
-    <row r="266" spans="1:16" ht="24.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="266" spans="1:16" ht="24.85" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A266" s="5" t="s">
         <v>479</v>
       </c>
@@ -14871,17 +14839,17 @@
         <v>733</v>
       </c>
       <c r="M266" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="N266" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="O266" s="3" t="s">
         <v>954</v>
       </c>
       <c r="P266" s="3"/>
     </row>
-    <row r="267" spans="1:16" ht="24.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="267" spans="1:16" ht="24.85" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A267" s="5" t="s">
         <v>479</v>
       </c>
@@ -14920,17 +14888,17 @@
         <v>733</v>
       </c>
       <c r="M267" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="N267" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="O267" s="3" t="s">
         <v>954</v>
       </c>
       <c r="P267" s="3"/>
     </row>
-    <row r="268" spans="1:16" ht="24.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="268" spans="1:16" ht="24.85" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A268" s="5" t="s">
         <v>479</v>
       </c>
@@ -14969,17 +14937,17 @@
         <v>733</v>
       </c>
       <c r="M268" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="N268" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="O268" s="3" t="s">
         <v>954</v>
       </c>
       <c r="P268" s="3"/>
     </row>
-    <row r="269" spans="1:16" ht="24.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="269" spans="1:16" ht="24.85" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A269" s="5" t="s">
         <v>479</v>
       </c>
@@ -15018,17 +14986,17 @@
         <v>733</v>
       </c>
       <c r="M269" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="N269" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="O269" s="3" t="s">
         <v>954</v>
       </c>
       <c r="P269" s="3"/>
     </row>
-    <row r="270" spans="1:16" ht="24.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="270" spans="1:16" ht="24.85" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A270" s="5" t="s">
         <v>479</v>
       </c>
@@ -15067,29 +15035,25 @@
         <v>733</v>
       </c>
       <c r="M270" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="N270" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="O270" s="3" t="s">
         <v>954</v>
       </c>
       <c r="P270" s="3"/>
     </row>
-    <row r="271" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="271" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A271" s="8" t="s">
         <v>509</v>
       </c>
       <c r="B271" s="8"/>
       <c r="C271" s="8"/>
       <c r="D271" s="8"/>
-      <c r="E271" s="8" t="s">
-        <v>509</v>
-      </c>
-      <c r="F271" s="8" t="s">
-        <v>509</v>
-      </c>
+      <c r="E271" s="8"/>
+      <c r="F271" s="8"/>
       <c r="G271" s="8"/>
       <c r="H271" s="8"/>
       <c r="I271" s="8"/>
@@ -15109,7 +15073,7 @@
       </c>
       <c r="P271" s="9"/>
     </row>
-    <row r="272" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="272" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A272" s="5" t="s">
         <v>489</v>
       </c>
@@ -15142,7 +15106,7 @@
       </c>
       <c r="P272" s="3"/>
     </row>
-    <row r="273" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="273" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A273" s="5" t="s">
         <v>489</v>
       </c>
@@ -15175,7 +15139,7 @@
       </c>
       <c r="P273" s="3"/>
     </row>
-    <row r="274" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="274" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A274" s="5" t="s">
         <v>494</v>
       </c>
@@ -15218,7 +15182,7 @@
       </c>
       <c r="P274" s="3"/>
     </row>
-    <row r="275" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="275" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A275" s="5" t="s">
         <v>494</v>
       </c>
@@ -15261,7 +15225,7 @@
       </c>
       <c r="P275" s="3"/>
     </row>
-    <row r="276" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="276" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A276" s="5" t="s">
         <v>494</v>
       </c>
@@ -15304,7 +15268,7 @@
       </c>
       <c r="P276" s="3"/>
     </row>
-    <row r="277" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="277" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A277" s="5" t="s">
         <v>494</v>
       </c>
@@ -15347,7 +15311,7 @@
       </c>
       <c r="P277" s="3"/>
     </row>
-    <row r="278" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="278" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A278" s="5" t="s">
         <v>494</v>
       </c>
@@ -15390,7 +15354,7 @@
       </c>
       <c r="P278" s="3"/>
     </row>
-    <row r="279" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="279" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A279" s="5" t="s">
         <v>494</v>
       </c>
@@ -15433,7 +15397,7 @@
       </c>
       <c r="P279" s="3"/>
     </row>
-    <row r="280" spans="1:16" ht="25.5" x14ac:dyDescent="0.45">
+    <row r="280" spans="1:16" ht="25.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A280" s="5" t="s">
         <v>494</v>
       </c>
@@ -15476,19 +15440,15 @@
       </c>
       <c r="P280" s="3"/>
     </row>
-    <row r="281" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="281" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A281" s="8" t="s">
         <v>536</v>
       </c>
       <c r="B281" s="8"/>
       <c r="C281" s="8"/>
       <c r="D281" s="8"/>
-      <c r="E281" s="8" t="s">
-        <v>536</v>
-      </c>
-      <c r="F281" s="8" t="s">
-        <v>536</v>
-      </c>
+      <c r="E281" s="8"/>
+      <c r="F281" s="8"/>
       <c r="G281" s="8"/>
       <c r="H281" s="8"/>
       <c r="I281" s="8"/>
@@ -15508,7 +15468,7 @@
       </c>
       <c r="P281" s="9"/>
     </row>
-    <row r="282" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="282" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A282" s="2" t="s">
         <v>510</v>
       </c>
@@ -15531,7 +15491,7 @@
         <v>510</v>
       </c>
       <c r="H282" s="2" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="I282" s="2" t="s">
         <v>26</v>
@@ -15553,7 +15513,7 @@
       </c>
       <c r="P282" s="3"/>
     </row>
-    <row r="283" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="283" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A283" s="2" t="s">
         <v>510</v>
       </c>
@@ -15576,7 +15536,7 @@
         <v>510</v>
       </c>
       <c r="H283" s="2" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="I283" s="2" t="s">
         <v>18</v>
@@ -15598,7 +15558,7 @@
       </c>
       <c r="P283" s="3"/>
     </row>
-    <row r="284" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="284" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A284" s="2" t="s">
         <v>513</v>
       </c>
@@ -15643,7 +15603,7 @@
       </c>
       <c r="P284" s="3"/>
     </row>
-    <row r="285" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="285" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A285" s="2" t="s">
         <v>516</v>
       </c>
@@ -15688,7 +15648,7 @@
       </c>
       <c r="P285" s="3"/>
     </row>
-    <row r="286" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="286" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A286" s="2" t="s">
         <v>513</v>
       </c>
@@ -15733,7 +15693,7 @@
       </c>
       <c r="P286" s="3"/>
     </row>
-    <row r="287" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="287" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A287" s="2" t="s">
         <v>513</v>
       </c>
@@ -15778,7 +15738,7 @@
       </c>
       <c r="P287" s="3"/>
     </row>
-    <row r="288" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="288" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A288" s="2" t="s">
         <v>513</v>
       </c>
@@ -15823,7 +15783,7 @@
       </c>
       <c r="P288" s="3"/>
     </row>
-    <row r="289" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="289" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A289" s="2" t="s">
         <v>513</v>
       </c>
@@ -15868,7 +15828,7 @@
       </c>
       <c r="P289" s="3"/>
     </row>
-    <row r="290" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="290" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A290" s="2" t="s">
         <v>513</v>
       </c>
@@ -15913,7 +15873,7 @@
       </c>
       <c r="P290" s="3"/>
     </row>
-    <row r="291" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="291" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A291" s="2" t="s">
         <v>516</v>
       </c>
@@ -15958,7 +15918,7 @@
       </c>
       <c r="P291" s="3"/>
     </row>
-    <row r="292" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="292" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A292" s="2" t="s">
         <v>516</v>
       </c>
@@ -16003,7 +15963,7 @@
       </c>
       <c r="P292" s="3"/>
     </row>
-    <row r="293" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="293" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A293" s="2" t="s">
         <v>516</v>
       </c>
@@ -16035,17 +15995,17 @@
         <v>733</v>
       </c>
       <c r="M293" s="3" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="N293" s="3" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="O293" s="3" t="s">
         <v>954</v>
       </c>
       <c r="P293" s="3"/>
     </row>
-    <row r="294" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="294" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A294" s="2" t="s">
         <v>510</v>
       </c>
@@ -16077,29 +16037,25 @@
         <v>733</v>
       </c>
       <c r="M294" s="3" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="N294" s="3" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="O294" s="3" t="s">
         <v>954</v>
       </c>
       <c r="P294" s="3"/>
     </row>
-    <row r="295" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="295" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A295" s="8" t="s">
         <v>48</v>
       </c>
       <c r="B295" s="8"/>
       <c r="C295" s="8"/>
       <c r="D295" s="8"/>
-      <c r="E295" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F295" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="E295" s="8"/>
+      <c r="F295" s="8"/>
       <c r="G295" s="8"/>
       <c r="H295" s="8"/>
       <c r="I295" s="8"/>
@@ -16119,7 +16075,7 @@
       </c>
       <c r="P295" s="9"/>
     </row>
-    <row r="296" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="296" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A296" s="2" t="s">
         <v>5</v>
       </c>
@@ -16172,7 +16128,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="297" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="297" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A297" s="2" t="s">
         <v>9</v>
       </c>
@@ -16225,7 +16181,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="298" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="298" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A298" s="2" t="s">
         <v>5</v>
       </c>
@@ -16278,7 +16234,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="299" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="299" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A299" s="2" t="s">
         <v>9</v>
       </c>
@@ -16331,7 +16287,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="300" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="300" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A300" s="2" t="s">
         <v>5</v>
       </c>
@@ -16384,7 +16340,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="301" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="301" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A301" s="2" t="s">
         <v>9</v>
       </c>
@@ -16437,7 +16393,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="302" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="302" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A302" s="2" t="s">
         <v>5</v>
       </c>
@@ -16490,7 +16446,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="303" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="303" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A303" s="2" t="s">
         <v>9</v>
       </c>
@@ -16543,7 +16499,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="304" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="304" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A304" s="2" t="s">
         <v>21</v>
       </c>
@@ -16593,7 +16549,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="305" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="305" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A305" s="2" t="s">
         <v>24</v>
       </c>
@@ -16643,7 +16599,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="306" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="306" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A306" s="2" t="s">
         <v>21</v>
       </c>
@@ -16696,7 +16652,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="307" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="307" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A307" s="2" t="s">
         <v>24</v>
       </c>
@@ -16749,7 +16705,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="308" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="308" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A308" s="2" t="s">
         <v>21</v>
       </c>
@@ -16802,7 +16758,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="309" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="309" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A309" s="2" t="s">
         <v>24</v>
       </c>
@@ -16855,7 +16811,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="310" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="310" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A310" s="2" t="s">
         <v>31</v>
       </c>
@@ -16905,7 +16861,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="311" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="311" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A311" s="2" t="s">
         <v>33</v>
       </c>
@@ -16955,7 +16911,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="312" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="312" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A312" s="2" t="s">
         <v>31</v>
       </c>
@@ -17008,7 +16964,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="313" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="313" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A313" s="2" t="s">
         <v>33</v>
       </c>
@@ -17061,7 +17017,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="314" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="314" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A314" s="2" t="s">
         <v>31</v>
       </c>
@@ -17114,7 +17070,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="315" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="315" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A315" s="2" t="s">
         <v>33</v>
       </c>
@@ -17167,7 +17123,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="316" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="316" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A316" s="2" t="s">
         <v>31</v>
       </c>
@@ -17217,7 +17173,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="317" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="317" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A317" s="2" t="s">
         <v>33</v>
       </c>
@@ -17267,19 +17223,15 @@
         <v>936</v>
       </c>
     </row>
-    <row r="318" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="318" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A318" s="8" t="s">
         <v>579</v>
       </c>
       <c r="B318" s="8"/>
       <c r="C318" s="8"/>
       <c r="D318" s="8"/>
-      <c r="E318" s="8" t="s">
-        <v>579</v>
-      </c>
-      <c r="F318" s="8" t="s">
-        <v>579</v>
-      </c>
+      <c r="E318" s="8"/>
+      <c r="F318" s="8"/>
       <c r="G318" s="8"/>
       <c r="H318" s="8"/>
       <c r="I318" s="8"/>
@@ -17299,7 +17251,7 @@
       </c>
       <c r="P318" s="9"/>
     </row>
-    <row r="319" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="319" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A319" s="2" t="s">
         <v>537</v>
       </c>
@@ -17341,7 +17293,7 @@
       </c>
       <c r="P319" s="3"/>
     </row>
-    <row r="320" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="320" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A320" s="2" t="s">
         <v>540</v>
       </c>
@@ -17383,7 +17335,7 @@
       </c>
       <c r="P320" s="3"/>
     </row>
-    <row r="321" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="321" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A321" s="2" t="s">
         <v>542</v>
       </c>
@@ -17425,7 +17377,7 @@
       </c>
       <c r="P321" s="3"/>
     </row>
-    <row r="322" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="322" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A322" s="2" t="s">
         <v>546</v>
       </c>
@@ -17467,7 +17419,7 @@
       </c>
       <c r="P322" s="3"/>
     </row>
-    <row r="323" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="323" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A323" s="2" t="s">
         <v>548</v>
       </c>
@@ -17509,7 +17461,7 @@
       </c>
       <c r="P323" s="3"/>
     </row>
-    <row r="324" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="324" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A324" s="2" t="s">
         <v>548</v>
       </c>
@@ -17551,7 +17503,7 @@
       </c>
       <c r="P324" s="3"/>
     </row>
-    <row r="325" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="325" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A325" s="2" t="s">
         <v>542</v>
       </c>
@@ -17593,7 +17545,7 @@
       </c>
       <c r="P325" s="3"/>
     </row>
-    <row r="326" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="326" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A326" s="2" t="s">
         <v>546</v>
       </c>
@@ -17635,7 +17587,7 @@
       </c>
       <c r="P326" s="3"/>
     </row>
-    <row r="327" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="327" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A327" s="2" t="s">
         <v>553</v>
       </c>
@@ -17677,7 +17629,7 @@
       </c>
       <c r="P327" s="3"/>
     </row>
-    <row r="328" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="328" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A328" s="2" t="s">
         <v>553</v>
       </c>
@@ -17719,7 +17671,7 @@
       </c>
       <c r="P328" s="3"/>
     </row>
-    <row r="329" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="329" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A329" s="2" t="s">
         <v>553</v>
       </c>
@@ -17761,7 +17713,7 @@
       </c>
       <c r="P329" s="3"/>
     </row>
-    <row r="330" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="330" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A330" s="2" t="s">
         <v>553</v>
       </c>
@@ -17803,7 +17755,7 @@
       </c>
       <c r="P330" s="3"/>
     </row>
-    <row r="331" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="331" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A331" s="2" t="s">
         <v>553</v>
       </c>
@@ -17845,7 +17797,7 @@
       </c>
       <c r="P331" s="3"/>
     </row>
-    <row r="332" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="332" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A332" s="2" t="s">
         <v>553</v>
       </c>
@@ -17887,7 +17839,7 @@
       </c>
       <c r="P332" s="3"/>
     </row>
-    <row r="333" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="333" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A333" s="2" t="s">
         <v>566</v>
       </c>
@@ -17926,7 +17878,7 @@
       </c>
       <c r="P333" s="3"/>
     </row>
-    <row r="334" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="334" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A334" s="2" t="s">
         <v>566</v>
       </c>
@@ -17968,7 +17920,7 @@
       </c>
       <c r="P334" s="3"/>
     </row>
-    <row r="335" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="335" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A335" s="2" t="s">
         <v>566</v>
       </c>
@@ -18010,7 +17962,7 @@
       </c>
       <c r="P335" s="3"/>
     </row>
-    <row r="336" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="336" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A336" s="2" t="s">
         <v>571</v>
       </c>
@@ -18049,7 +18001,7 @@
       </c>
       <c r="P336" s="3"/>
     </row>
-    <row r="337" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="337" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A337" s="2" t="s">
         <v>571</v>
       </c>
@@ -18091,7 +18043,7 @@
       </c>
       <c r="P337" s="3"/>
     </row>
-    <row r="338" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="338" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A338" s="2" t="s">
         <v>571</v>
       </c>
@@ -18133,7 +18085,7 @@
       </c>
       <c r="P338" s="3"/>
     </row>
-    <row r="339" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="339" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A339" s="2" t="s">
         <v>575</v>
       </c>
@@ -18172,7 +18124,7 @@
       </c>
       <c r="P339" s="3"/>
     </row>
-    <row r="340" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="340" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A340" s="2" t="s">
         <v>575</v>
       </c>
@@ -18214,7 +18166,7 @@
       </c>
       <c r="P340" s="3"/>
     </row>
-    <row r="341" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="341" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A341" s="2" t="s">
         <v>575</v>
       </c>
@@ -18256,7 +18208,7 @@
       </c>
       <c r="P341" s="3"/>
     </row>
-    <row r="342" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="342" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A342" s="8" t="s">
         <v>588</v>
       </c>
@@ -18280,7 +18232,7 @@
       </c>
       <c r="P342" s="9"/>
     </row>
-    <row r="343" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="343" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A343" s="2" t="s">
         <v>580</v>
       </c>
@@ -18312,7 +18264,7 @@
         <v>733</v>
       </c>
       <c r="M343" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="N343" s="3" t="s">
         <v>754</v>
@@ -18322,7 +18274,7 @@
       </c>
       <c r="P343" s="3"/>
     </row>
-    <row r="344" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="344" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A344" s="2" t="s">
         <v>584</v>
       </c>
@@ -18364,7 +18316,7 @@
       </c>
       <c r="P344" s="3"/>
     </row>
-    <row r="345" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="345" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A345" s="2" t="s">
         <v>585</v>
       </c>
@@ -18406,7 +18358,7 @@
       </c>
       <c r="P345" s="3"/>
     </row>
-    <row r="346" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="346" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A346" s="2" t="s">
         <v>587</v>
       </c>
@@ -18448,7 +18400,7 @@
       </c>
       <c r="P346" s="3"/>
     </row>
-    <row r="347" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="347" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A347" s="8" t="s">
         <v>648</v>
       </c>
@@ -18472,7 +18424,7 @@
       </c>
       <c r="P347" s="9"/>
     </row>
-    <row r="348" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="348" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A348" s="5" t="s">
         <v>589</v>
       </c>
@@ -18519,7 +18471,7 @@
       </c>
       <c r="P348" s="3"/>
     </row>
-    <row r="349" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="349" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A349" s="5" t="s">
         <v>589</v>
       </c>
@@ -18566,7 +18518,7 @@
       </c>
       <c r="P349" s="3"/>
     </row>
-    <row r="350" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="350" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A350" s="5" t="s">
         <v>589</v>
       </c>
@@ -18613,7 +18565,7 @@
       </c>
       <c r="P350" s="3"/>
     </row>
-    <row r="351" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="351" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A351" s="5" t="s">
         <v>596</v>
       </c>
@@ -18660,7 +18612,7 @@
       </c>
       <c r="P351" s="14"/>
     </row>
-    <row r="352" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="352" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A352" s="5" t="s">
         <v>596</v>
       </c>
@@ -18707,7 +18659,7 @@
       </c>
       <c r="P352" s="14"/>
     </row>
-    <row r="353" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="353" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A353" s="5" t="s">
         <v>596</v>
       </c>
@@ -18754,7 +18706,7 @@
       </c>
       <c r="P353" s="14"/>
     </row>
-    <row r="354" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="354" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A354" s="5" t="s">
         <v>596</v>
       </c>
@@ -18801,7 +18753,7 @@
       </c>
       <c r="P354" s="14"/>
     </row>
-    <row r="355" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="355" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A355" s="5" t="s">
         <v>119</v>
       </c>
@@ -18848,7 +18800,7 @@
       </c>
       <c r="P355" s="10"/>
     </row>
-    <row r="356" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="356" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A356" s="5" t="s">
         <v>119</v>
       </c>
@@ -18895,7 +18847,7 @@
       </c>
       <c r="P356" s="10"/>
     </row>
-    <row r="357" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="357" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A357" s="5" t="s">
         <v>119</v>
       </c>
@@ -18942,7 +18894,7 @@
       </c>
       <c r="P357" s="10"/>
     </row>
-    <row r="358" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="358" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A358" s="5" t="s">
         <v>119</v>
       </c>
@@ -18989,7 +18941,7 @@
       </c>
       <c r="P358" s="10"/>
     </row>
-    <row r="359" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="359" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A359" s="5" t="s">
         <v>613</v>
       </c>
@@ -19036,7 +18988,7 @@
       </c>
       <c r="P359" s="13"/>
     </row>
-    <row r="360" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="360" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A360" s="5" t="s">
         <v>613</v>
       </c>
@@ -19083,7 +19035,7 @@
       </c>
       <c r="P360" s="13"/>
     </row>
-    <row r="361" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="361" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A361" s="5" t="s">
         <v>618</v>
       </c>
@@ -19130,7 +19082,7 @@
       </c>
       <c r="P361" s="10"/>
     </row>
-    <row r="362" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="362" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A362" s="5" t="s">
         <v>618</v>
       </c>
@@ -19177,7 +19129,7 @@
       </c>
       <c r="P362" s="10"/>
     </row>
-    <row r="363" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="363" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A363" s="5" t="s">
         <v>623</v>
       </c>
@@ -19224,7 +19176,7 @@
       </c>
       <c r="P363" s="11"/>
     </row>
-    <row r="364" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="364" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A364" s="5" t="s">
         <v>623</v>
       </c>
@@ -19271,7 +19223,7 @@
       </c>
       <c r="P364" s="11"/>
     </row>
-    <row r="365" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="365" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A365" s="5" t="s">
         <v>628</v>
       </c>
@@ -19318,7 +19270,7 @@
       </c>
       <c r="P365" s="12"/>
     </row>
-    <row r="366" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="366" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A366" s="5" t="s">
         <v>628</v>
       </c>
@@ -19365,7 +19317,7 @@
       </c>
       <c r="P366" s="12"/>
     </row>
-    <row r="367" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="367" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A367" s="5" t="s">
         <v>633</v>
       </c>
@@ -19412,7 +19364,7 @@
       </c>
       <c r="P367" s="14"/>
     </row>
-    <row r="368" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="368" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A368" s="5" t="s">
         <v>633</v>
       </c>
@@ -19459,7 +19411,7 @@
       </c>
       <c r="P368" s="14"/>
     </row>
-    <row r="369" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="369" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A369" s="5" t="s">
         <v>638</v>
       </c>
@@ -19506,7 +19458,7 @@
       </c>
       <c r="P369" s="10"/>
     </row>
-    <row r="370" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="370" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A370" s="5" t="s">
         <v>638</v>
       </c>
@@ -19553,7 +19505,7 @@
       </c>
       <c r="P370" s="10"/>
     </row>
-    <row r="371" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="371" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A371" s="5" t="s">
         <v>643</v>
       </c>
@@ -19600,7 +19552,7 @@
       </c>
       <c r="P371" s="10"/>
     </row>
-    <row r="372" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="372" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A372" s="5" t="s">
         <v>643</v>
       </c>
@@ -19647,7 +19599,7 @@
       </c>
       <c r="P372" s="10"/>
     </row>
-    <row r="373" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="373" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A373" s="8" t="s">
         <v>729</v>
       </c>
@@ -19675,7 +19627,7 @@
       </c>
       <c r="P373" s="9"/>
     </row>
-    <row r="374" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="374" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A374" s="5" t="s">
         <v>649</v>
       </c>
@@ -19708,7 +19660,7 @@
       </c>
       <c r="P374" s="3"/>
     </row>
-    <row r="375" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="375" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A375" s="5" t="s">
         <v>652</v>
       </c>
@@ -19748,7 +19700,7 @@
         <v>733</v>
       </c>
       <c r="M375" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="N375" s="3" t="s">
         <v>53</v>
@@ -19758,7 +19710,7 @@
       </c>
       <c r="P375" s="3"/>
     </row>
-    <row r="376" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="376" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A376" s="5" t="s">
         <v>652</v>
       </c>
@@ -19798,7 +19750,7 @@
         <v>733</v>
       </c>
       <c r="M376" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="N376" s="3" t="s">
         <v>53</v>
@@ -19808,7 +19760,7 @@
       </c>
       <c r="P376" s="3"/>
     </row>
-    <row r="377" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="377" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A377" s="5" t="s">
         <v>652</v>
       </c>
@@ -19848,7 +19800,7 @@
         <v>733</v>
       </c>
       <c r="M377" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="N377" s="3" t="s">
         <v>53</v>
@@ -19858,7 +19810,7 @@
       </c>
       <c r="P377" s="3"/>
     </row>
-    <row r="378" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="378" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A378" s="5" t="s">
         <v>652</v>
       </c>
@@ -19898,7 +19850,7 @@
         <v>733</v>
       </c>
       <c r="M378" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="N378" s="3" t="s">
         <v>53</v>
@@ -19908,7 +19860,7 @@
       </c>
       <c r="P378" s="3"/>
     </row>
-    <row r="379" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="379" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A379" s="5" t="s">
         <v>652</v>
       </c>
@@ -19948,7 +19900,7 @@
         <v>733</v>
       </c>
       <c r="M379" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="N379" s="3" t="s">
         <v>53</v>
@@ -19958,7 +19910,7 @@
       </c>
       <c r="P379" s="3"/>
     </row>
-    <row r="380" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="380" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A380" s="5" t="s">
         <v>663</v>
       </c>
@@ -19998,7 +19950,7 @@
         <v>733</v>
       </c>
       <c r="M380" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="N380" s="3" t="s">
         <v>53</v>
@@ -20008,7 +19960,7 @@
       </c>
       <c r="P380" s="3"/>
     </row>
-    <row r="381" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="381" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A381" s="5" t="s">
         <v>663</v>
       </c>
@@ -20048,7 +20000,7 @@
         <v>733</v>
       </c>
       <c r="M381" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="N381" s="3" t="s">
         <v>53</v>
@@ -20058,7 +20010,7 @@
       </c>
       <c r="P381" s="3"/>
     </row>
-    <row r="382" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="382" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A382" s="5" t="s">
         <v>663</v>
       </c>
@@ -20098,7 +20050,7 @@
         <v>733</v>
       </c>
       <c r="M382" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="N382" s="3" t="s">
         <v>53</v>
@@ -20108,7 +20060,7 @@
       </c>
       <c r="P382" s="3"/>
     </row>
-    <row r="383" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="383" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A383" s="5" t="s">
         <v>663</v>
       </c>
@@ -20148,7 +20100,7 @@
         <v>733</v>
       </c>
       <c r="M383" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="N383" s="3" t="s">
         <v>53</v>
@@ -20158,7 +20110,7 @@
       </c>
       <c r="P383" s="3"/>
     </row>
-    <row r="384" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="384" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A384" s="5" t="s">
         <v>663</v>
       </c>
@@ -20198,7 +20150,7 @@
         <v>733</v>
       </c>
       <c r="M384" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="N384" s="3" t="s">
         <v>53</v>
@@ -20208,7 +20160,7 @@
       </c>
       <c r="P384" s="3"/>
     </row>
-    <row r="385" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="385" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A385" s="5" t="s">
         <v>674</v>
       </c>
@@ -20248,7 +20200,7 @@
         <v>733</v>
       </c>
       <c r="M385" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="N385" s="3" t="s">
         <v>53</v>
@@ -20258,7 +20210,7 @@
       </c>
       <c r="P385" s="3"/>
     </row>
-    <row r="386" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="386" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A386" s="5" t="s">
         <v>674</v>
       </c>
@@ -20298,7 +20250,7 @@
         <v>733</v>
       </c>
       <c r="M386" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="N386" s="3" t="s">
         <v>53</v>
@@ -20308,7 +20260,7 @@
       </c>
       <c r="P386" s="3"/>
     </row>
-    <row r="387" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="387" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A387" s="5" t="s">
         <v>674</v>
       </c>
@@ -20348,7 +20300,7 @@
         <v>733</v>
       </c>
       <c r="M387" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="N387" s="3" t="s">
         <v>53</v>
@@ -20358,7 +20310,7 @@
       </c>
       <c r="P387" s="3"/>
     </row>
-    <row r="388" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="388" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A388" s="5" t="s">
         <v>674</v>
       </c>
@@ -20398,7 +20350,7 @@
         <v>733</v>
       </c>
       <c r="M388" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="N388" s="3" t="s">
         <v>53</v>
@@ -20408,7 +20360,7 @@
       </c>
       <c r="P388" s="3"/>
     </row>
-    <row r="389" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="389" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A389" s="5" t="s">
         <v>674</v>
       </c>
@@ -20448,7 +20400,7 @@
         <v>733</v>
       </c>
       <c r="M389" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="N389" s="3" t="s">
         <v>53</v>
@@ -20458,7 +20410,7 @@
       </c>
       <c r="P389" s="3"/>
     </row>
-    <row r="390" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="390" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A390" s="5" t="s">
         <v>685</v>
       </c>
@@ -20498,7 +20450,7 @@
         <v>733</v>
       </c>
       <c r="M390" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="N390" s="3" t="s">
         <v>53</v>
@@ -20508,7 +20460,7 @@
       </c>
       <c r="P390" s="3"/>
     </row>
-    <row r="391" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="391" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A391" s="5" t="s">
         <v>685</v>
       </c>
@@ -20548,7 +20500,7 @@
         <v>733</v>
       </c>
       <c r="M391" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="N391" s="3" t="s">
         <v>53</v>
@@ -20558,7 +20510,7 @@
       </c>
       <c r="P391" s="3"/>
     </row>
-    <row r="392" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="392" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A392" s="5" t="s">
         <v>685</v>
       </c>
@@ -20598,7 +20550,7 @@
         <v>733</v>
       </c>
       <c r="M392" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="N392" s="3" t="s">
         <v>53</v>
@@ -20608,7 +20560,7 @@
       </c>
       <c r="P392" s="3"/>
     </row>
-    <row r="393" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="393" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A393" s="5" t="s">
         <v>685</v>
       </c>
@@ -20648,7 +20600,7 @@
         <v>733</v>
       </c>
       <c r="M393" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="N393" s="3" t="s">
         <v>53</v>
@@ -20658,7 +20610,7 @@
       </c>
       <c r="P393" s="3"/>
     </row>
-    <row r="394" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="394" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A394" s="5" t="s">
         <v>685</v>
       </c>
@@ -20698,7 +20650,7 @@
         <v>733</v>
       </c>
       <c r="M394" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="N394" s="3" t="s">
         <v>53</v>
@@ -20708,7 +20660,7 @@
       </c>
       <c r="P394" s="3"/>
     </row>
-    <row r="395" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="395" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A395" s="5" t="s">
         <v>696</v>
       </c>
@@ -20748,7 +20700,7 @@
         <v>733</v>
       </c>
       <c r="M395" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="N395" s="3" t="s">
         <v>53</v>
@@ -20758,7 +20710,7 @@
       </c>
       <c r="P395" s="3"/>
     </row>
-    <row r="396" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="396" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A396" s="5" t="s">
         <v>696</v>
       </c>
@@ -20798,7 +20750,7 @@
         <v>733</v>
       </c>
       <c r="M396" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="N396" s="3" t="s">
         <v>53</v>
@@ -20808,7 +20760,7 @@
       </c>
       <c r="P396" s="3"/>
     </row>
-    <row r="397" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="397" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A397" s="5" t="s">
         <v>696</v>
       </c>
@@ -20848,7 +20800,7 @@
         <v>733</v>
       </c>
       <c r="M397" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="N397" s="3" t="s">
         <v>53</v>
@@ -20858,7 +20810,7 @@
       </c>
       <c r="P397" s="3"/>
     </row>
-    <row r="398" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="398" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A398" s="5" t="s">
         <v>696</v>
       </c>
@@ -20898,7 +20850,7 @@
         <v>733</v>
       </c>
       <c r="M398" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="N398" s="3" t="s">
         <v>53</v>
@@ -20908,7 +20860,7 @@
       </c>
       <c r="P398" s="3"/>
     </row>
-    <row r="399" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="399" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A399" s="5" t="s">
         <v>696</v>
       </c>
@@ -20948,7 +20900,7 @@
         <v>733</v>
       </c>
       <c r="M399" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="N399" s="3" t="s">
         <v>53</v>
@@ -20958,7 +20910,7 @@
       </c>
       <c r="P399" s="3"/>
     </row>
-    <row r="400" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="400" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A400" s="5" t="s">
         <v>707</v>
       </c>
@@ -20998,7 +20950,7 @@
         <v>733</v>
       </c>
       <c r="M400" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="N400" s="3" t="s">
         <v>53</v>
@@ -21008,7 +20960,7 @@
       </c>
       <c r="P400" s="3"/>
     </row>
-    <row r="401" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="401" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A401" s="5" t="s">
         <v>707</v>
       </c>
@@ -21048,7 +21000,7 @@
         <v>733</v>
       </c>
       <c r="M401" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="N401" s="3" t="s">
         <v>53</v>
@@ -21058,7 +21010,7 @@
       </c>
       <c r="P401" s="3"/>
     </row>
-    <row r="402" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="402" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A402" s="5" t="s">
         <v>707</v>
       </c>
@@ -21098,7 +21050,7 @@
         <v>733</v>
       </c>
       <c r="M402" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="N402" s="3" t="s">
         <v>53</v>
@@ -21108,7 +21060,7 @@
       </c>
       <c r="P402" s="3"/>
     </row>
-    <row r="403" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="403" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A403" s="5" t="s">
         <v>707</v>
       </c>
@@ -21148,7 +21100,7 @@
         <v>733</v>
       </c>
       <c r="M403" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="N403" s="3" t="s">
         <v>53</v>
@@ -21158,7 +21110,7 @@
       </c>
       <c r="P403" s="3"/>
     </row>
-    <row r="404" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="404" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A404" s="5" t="s">
         <v>707</v>
       </c>
@@ -21198,7 +21150,7 @@
         <v>733</v>
       </c>
       <c r="M404" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="N404" s="3" t="s">
         <v>53</v>
@@ -21208,7 +21160,7 @@
       </c>
       <c r="P404" s="3"/>
     </row>
-    <row r="405" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="405" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A405" s="5" t="s">
         <v>718</v>
       </c>
@@ -21248,7 +21200,7 @@
         <v>733</v>
       </c>
       <c r="M405" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="N405" s="3" t="s">
         <v>53</v>
@@ -21258,7 +21210,7 @@
       </c>
       <c r="P405" s="3"/>
     </row>
-    <row r="406" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="406" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A406" s="5" t="s">
         <v>718</v>
       </c>
@@ -21298,7 +21250,7 @@
         <v>733</v>
       </c>
       <c r="M406" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="N406" s="3" t="s">
         <v>53</v>
@@ -21308,7 +21260,7 @@
       </c>
       <c r="P406" s="3"/>
     </row>
-    <row r="407" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="407" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A407" s="5" t="s">
         <v>718</v>
       </c>
@@ -21348,7 +21300,7 @@
         <v>733</v>
       </c>
       <c r="M407" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="N407" s="3" t="s">
         <v>53</v>
@@ -21358,7 +21310,7 @@
       </c>
       <c r="P407" s="3"/>
     </row>
-    <row r="408" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="408" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A408" s="5" t="s">
         <v>718</v>
       </c>
@@ -21398,7 +21350,7 @@
         <v>733</v>
       </c>
       <c r="M408" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="N408" s="3" t="s">
         <v>53</v>
@@ -21408,7 +21360,7 @@
       </c>
       <c r="P408" s="3"/>
     </row>
-    <row r="409" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="409" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A409" s="5" t="s">
         <v>718</v>
       </c>
@@ -21448,7 +21400,7 @@
         <v>733</v>
       </c>
       <c r="M409" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="N409" s="3" t="s">
         <v>53</v>
@@ -21458,9 +21410,9 @@
       </c>
       <c r="P409" s="3"/>
     </row>
-    <row r="410" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="410" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A410" s="8" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="B410" s="8"/>
       <c r="C410" s="8"/>
@@ -21486,24 +21438,24 @@
       </c>
       <c r="P410" s="9"/>
     </row>
-    <row r="411" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="411" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="C411" s="2" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="E411" s="2" t="s">
+        <v>989</v>
+      </c>
+      <c r="F411" s="2" t="s">
+        <v>989</v>
+      </c>
+      <c r="G411" s="2" t="s">
         <v>990</v>
       </c>
-      <c r="F411" s="2" t="s">
+      <c r="H411" s="2" t="s">
         <v>990</v>
       </c>
-      <c r="G411" s="2" t="s">
-        <v>991</v>
-      </c>
-      <c r="H411" s="2" t="s">
-        <v>991</v>
-      </c>
       <c r="I411" s="2" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="J411" s="2" t="s">
         <v>939</v>
@@ -21522,7 +21474,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N410" xr:uid="{7951F0BF-F4F4-4018-91DD-7578A3106959}"/>
+  <autoFilter ref="A1:N411" xr:uid="{7951F0BF-F4F4-4018-91DD-7578A3106959}">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="hc35"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C3" location="'Data'!R5C2" display="EXRT.DS41.NZB17" xr:uid="{69299981-771A-4315-999E-74B10E059EDE}"/>
